--- a/活武器升级ID表更新20140730.xlsx
+++ b/活武器升级ID表更新20140730.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\elona\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="285" windowWidth="17955" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="285" windowWidth="17955" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="原表整理" sheetId="1" r:id="rId1"/>
@@ -5269,16 +5269,34 @@
     <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5287,10 +5305,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5302,7 +5320,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5314,122 +5341,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5440,8 +5359,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5464,46 +5395,103 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5513,6 +5501,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5558,6 +5558,12 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5579,16 +5585,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6018,121 +6018,121 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="6"/>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231" t="s">
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231" t="s">
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231" t="s">
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231" t="s">
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231" t="s">
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231" t="s">
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231" t="s">
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="231"/>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="231" t="s">
+      <c r="AA2" s="230"/>
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="231" t="s">
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="231"/>
-      <c r="AH2" s="236"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="254"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230" t="s">
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230" t="s">
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230">
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234">
         <v>5</v>
       </c>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234">
         <v>5</v>
       </c>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="T3" s="230" t="s">
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230">
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234">
         <v>5</v>
       </c>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230">
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="234">
         <v>5</v>
       </c>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="230">
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234">
         <v>5</v>
       </c>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230" t="s">
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="237"/>
+      <c r="AG3" s="234"/>
+      <c r="AH3" s="247"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
@@ -8062,141 +8062,141 @@
     </row>
     <row r="20" spans="1:41" ht="14.25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231" t="s">
+      <c r="C20" s="230"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="232" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="232"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232" t="s">
+      <c r="I20" s="248"/>
+      <c r="J20" s="248"/>
+      <c r="K20" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232" t="s">
+      <c r="L20" s="248"/>
+      <c r="M20" s="248"/>
+      <c r="N20" s="248" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="232"/>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="232" t="s">
+      <c r="O20" s="248"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="232"/>
-      <c r="S20" s="232"/>
-      <c r="T20" s="231" t="s">
+      <c r="R20" s="248"/>
+      <c r="S20" s="248"/>
+      <c r="T20" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231" t="s">
+      <c r="U20" s="230"/>
+      <c r="V20" s="230"/>
+      <c r="W20" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231" t="s">
+      <c r="X20" s="230"/>
+      <c r="Y20" s="230"/>
+      <c r="Z20" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="231"/>
-      <c r="AC20" s="231" t="s">
+      <c r="AA20" s="230"/>
+      <c r="AB20" s="230"/>
+      <c r="AC20" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231" t="s">
+      <c r="AD20" s="230"/>
+      <c r="AE20" s="230"/>
+      <c r="AF20" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="AG20" s="231"/>
-      <c r="AH20" s="236"/>
-      <c r="AJ20" s="232" t="s">
+      <c r="AG20" s="230"/>
+      <c r="AH20" s="254"/>
+      <c r="AJ20" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="AK20" s="232"/>
-      <c r="AL20" s="241"/>
-      <c r="AM20" s="242" t="s">
+      <c r="AK20" s="248"/>
+      <c r="AL20" s="249"/>
+      <c r="AM20" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="AN20" s="243"/>
-      <c r="AO20" s="244"/>
+      <c r="AN20" s="252"/>
+      <c r="AO20" s="253"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="230">
+      <c r="B21" s="234">
         <v>3</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230">
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234">
         <v>5</v>
       </c>
-      <c r="F21" s="230"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="233">
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="250">
         <v>3</v>
       </c>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233">
+      <c r="I21" s="250"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="250">
         <v>4</v>
       </c>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233">
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250">
         <v>5</v>
       </c>
-      <c r="O21" s="233"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="233">
+      <c r="O21" s="250"/>
+      <c r="P21" s="250"/>
+      <c r="Q21" s="250">
         <v>4</v>
       </c>
-      <c r="R21" s="233"/>
-      <c r="S21" s="233"/>
-      <c r="T21" s="230">
+      <c r="R21" s="250"/>
+      <c r="S21" s="250"/>
+      <c r="T21" s="234">
         <v>5</v>
       </c>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230">
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="234">
         <v>5</v>
       </c>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="230"/>
-      <c r="Z21" s="230">
+      <c r="X21" s="234"/>
+      <c r="Y21" s="234"/>
+      <c r="Z21" s="234">
         <v>5</v>
       </c>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="230"/>
-      <c r="AC21" s="230">
+      <c r="AA21" s="234"/>
+      <c r="AB21" s="234"/>
+      <c r="AC21" s="234">
         <v>3</v>
       </c>
-      <c r="AD21" s="230"/>
-      <c r="AE21" s="230"/>
-      <c r="AF21" s="230">
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="234"/>
+      <c r="AF21" s="234">
         <v>3</v>
       </c>
-      <c r="AG21" s="230"/>
-      <c r="AH21" s="237"/>
-      <c r="AJ21" s="233">
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="247"/>
+      <c r="AJ21" s="250">
         <v>1</v>
       </c>
-      <c r="AK21" s="233"/>
-      <c r="AL21" s="233"/>
-      <c r="AM21" s="238">
+      <c r="AK21" s="250"/>
+      <c r="AL21" s="250"/>
+      <c r="AM21" s="244">
         <v>2</v>
       </c>
-      <c r="AN21" s="239"/>
-      <c r="AO21" s="240"/>
+      <c r="AN21" s="245"/>
+      <c r="AO21" s="246"/>
     </row>
     <row r="22" spans="1:41" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -10478,31 +10478,31 @@
     </row>
     <row r="38" spans="1:48" ht="14.25" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231" t="s">
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="230" t="s">
+      <c r="B39" s="234" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230" t="s">
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
     </row>
     <row r="40" spans="1:48" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -10911,66 +10911,66 @@
     </row>
     <row r="56" spans="1:37" ht="14.25" customHeight="1">
       <c r="A56" s="22"/>
-      <c r="B56" s="248" t="s">
+      <c r="B56" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="247"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="247" t="s">
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="247"/>
-      <c r="G56" s="247"/>
-      <c r="H56" s="248" t="s">
+      <c r="F56" s="242"/>
+      <c r="G56" s="242"/>
+      <c r="H56" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="I56" s="247"/>
-      <c r="J56" s="247"/>
-      <c r="K56" s="247" t="s">
+      <c r="I56" s="242"/>
+      <c r="J56" s="242"/>
+      <c r="K56" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="247"/>
-      <c r="M56" s="247"/>
-      <c r="N56" s="247" t="s">
+      <c r="L56" s="242"/>
+      <c r="M56" s="242"/>
+      <c r="N56" s="242" t="s">
         <v>61</v>
       </c>
-      <c r="O56" s="247"/>
-      <c r="P56" s="247"/>
-      <c r="Q56" s="246" t="s">
+      <c r="O56" s="242"/>
+      <c r="P56" s="242"/>
+      <c r="Q56" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="R56" s="246"/>
-      <c r="S56" s="246"/>
-      <c r="T56" s="246" t="s">
+      <c r="R56" s="237"/>
+      <c r="S56" s="237"/>
+      <c r="T56" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="U56" s="246"/>
-      <c r="V56" s="246"/>
-      <c r="W56" s="246" t="s">
+      <c r="U56" s="237"/>
+      <c r="V56" s="237"/>
+      <c r="W56" s="237" t="s">
         <v>156</v>
       </c>
-      <c r="X56" s="246"/>
-      <c r="Y56" s="246"/>
-      <c r="Z56" s="246" t="s">
+      <c r="X56" s="237"/>
+      <c r="Y56" s="237"/>
+      <c r="Z56" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="AA56" s="246"/>
-      <c r="AB56" s="246"/>
-      <c r="AC56" s="246" t="s">
+      <c r="AA56" s="237"/>
+      <c r="AB56" s="237"/>
+      <c r="AC56" s="237" t="s">
         <v>178</v>
       </c>
-      <c r="AD56" s="246"/>
-      <c r="AE56" s="246"/>
-      <c r="AF56" s="246" t="s">
+      <c r="AD56" s="237"/>
+      <c r="AE56" s="237"/>
+      <c r="AF56" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="AG56" s="246"/>
-      <c r="AH56" s="246"/>
-      <c r="AI56" s="246" t="s">
+      <c r="AG56" s="237"/>
+      <c r="AH56" s="237"/>
+      <c r="AI56" s="237" t="s">
         <v>157</v>
       </c>
-      <c r="AJ56" s="246"/>
-      <c r="AK56" s="253"/>
+      <c r="AJ56" s="237"/>
+      <c r="AK56" s="238"/>
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="23" t="s">
@@ -11011,41 +11011,41 @@
         <v>147</v>
       </c>
       <c r="P57" s="25"/>
-      <c r="Q57" s="249" t="s">
+      <c r="Q57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="R57" s="249"/>
-      <c r="S57" s="249"/>
-      <c r="T57" s="249" t="s">
+      <c r="R57" s="233"/>
+      <c r="S57" s="233"/>
+      <c r="T57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="U57" s="249"/>
-      <c r="V57" s="249"/>
-      <c r="W57" s="249" t="s">
+      <c r="U57" s="233"/>
+      <c r="V57" s="233"/>
+      <c r="W57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="X57" s="249"/>
-      <c r="Y57" s="249"/>
-      <c r="Z57" s="249" t="s">
+      <c r="X57" s="233"/>
+      <c r="Y57" s="233"/>
+      <c r="Z57" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="AA57" s="249"/>
-      <c r="AB57" s="249"/>
-      <c r="AC57" s="249" t="s">
+      <c r="AA57" s="233"/>
+      <c r="AB57" s="233"/>
+      <c r="AC57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AD57" s="249"/>
-      <c r="AE57" s="249"/>
-      <c r="AF57" s="249" t="s">
+      <c r="AD57" s="233"/>
+      <c r="AE57" s="233"/>
+      <c r="AF57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AG57" s="249"/>
-      <c r="AH57" s="249"/>
-      <c r="AI57" s="249" t="s">
+      <c r="AG57" s="233"/>
+      <c r="AH57" s="233"/>
+      <c r="AI57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AJ57" s="249"/>
-      <c r="AK57" s="252"/>
+      <c r="AJ57" s="233"/>
+      <c r="AK57" s="236"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="1" t="s">
@@ -13148,111 +13148,111 @@
     </row>
     <row r="74" spans="1:40">
       <c r="A74" s="22"/>
-      <c r="B74" s="235" t="s">
+      <c r="B74" s="241" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="245"/>
-      <c r="D74" s="245"/>
-      <c r="E74" s="231" t="s">
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="231" t="s">
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="245"/>
-      <c r="J74" s="245"/>
-      <c r="K74" s="231" t="s">
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="L74" s="245"/>
-      <c r="M74" s="245"/>
-      <c r="N74" s="231" t="s">
+      <c r="L74" s="231"/>
+      <c r="M74" s="231"/>
+      <c r="N74" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="O74" s="245"/>
-      <c r="P74" s="245"/>
-      <c r="Q74" s="231" t="s">
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="R74" s="245"/>
-      <c r="S74" s="245"/>
-      <c r="T74" s="231" t="s">
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="245"/>
-      <c r="V74" s="245"/>
-      <c r="W74" s="231" t="s">
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="230" t="s">
         <v>189</v>
       </c>
-      <c r="X74" s="245"/>
-      <c r="Y74" s="245"/>
-      <c r="Z74" s="231" t="s">
+      <c r="X74" s="231"/>
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="AA74" s="245"/>
-      <c r="AB74" s="245"/>
-      <c r="AC74" s="231" t="s">
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231"/>
+      <c r="AC74" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="AD74" s="245"/>
-      <c r="AE74" s="254"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="232"/>
     </row>
     <row r="75" spans="1:40">
       <c r="A75" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="234">
+      <c r="B75" s="240">
         <v>10</v>
       </c>
-      <c r="C75" s="250"/>
-      <c r="D75" s="250"/>
-      <c r="E75" s="230">
+      <c r="C75" s="235"/>
+      <c r="D75" s="235"/>
+      <c r="E75" s="234">
         <v>11</v>
       </c>
-      <c r="F75" s="250"/>
-      <c r="G75" s="250"/>
-      <c r="H75" s="230">
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="234">
         <v>9</v>
       </c>
-      <c r="I75" s="250"/>
-      <c r="J75" s="250"/>
-      <c r="K75" s="230">
+      <c r="I75" s="235"/>
+      <c r="J75" s="235"/>
+      <c r="K75" s="234">
         <v>9</v>
       </c>
-      <c r="L75" s="250"/>
-      <c r="M75" s="250"/>
-      <c r="N75" s="230">
+      <c r="L75" s="235"/>
+      <c r="M75" s="235"/>
+      <c r="N75" s="234">
         <v>8</v>
       </c>
-      <c r="O75" s="250"/>
-      <c r="P75" s="250"/>
-      <c r="Q75" s="230">
+      <c r="O75" s="235"/>
+      <c r="P75" s="235"/>
+      <c r="Q75" s="234">
         <v>11</v>
       </c>
-      <c r="R75" s="250"/>
-      <c r="S75" s="250"/>
-      <c r="T75" s="230">
+      <c r="R75" s="235"/>
+      <c r="S75" s="235"/>
+      <c r="T75" s="234">
         <v>9</v>
       </c>
-      <c r="U75" s="250"/>
-      <c r="V75" s="250"/>
-      <c r="W75" s="230">
+      <c r="U75" s="235"/>
+      <c r="V75" s="235"/>
+      <c r="W75" s="234">
         <v>11</v>
       </c>
-      <c r="X75" s="250"/>
-      <c r="Y75" s="250"/>
-      <c r="Z75" s="230">
+      <c r="X75" s="235"/>
+      <c r="Y75" s="235"/>
+      <c r="Z75" s="234">
         <v>10</v>
       </c>
-      <c r="AA75" s="250"/>
-      <c r="AB75" s="250"/>
-      <c r="AC75" s="230">
+      <c r="AA75" s="235"/>
+      <c r="AB75" s="235"/>
+      <c r="AC75" s="234">
         <v>11</v>
       </c>
-      <c r="AD75" s="250"/>
-      <c r="AE75" s="251"/>
+      <c r="AD75" s="235"/>
+      <c r="AE75" s="239"/>
     </row>
     <row r="76" spans="1:40">
       <c r="A76" s="1" t="s">
@@ -14976,28 +14976,58 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AC74:AE74"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="AI57:AK57"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="AI56:AK56"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AC75:AE75"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="AM21:AO21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q75:S75"/>
     <mergeCell ref="T74:V74"/>
     <mergeCell ref="Z56:AB56"/>
@@ -15014,59 +15044,29 @@
     <mergeCell ref="K56:M56"/>
     <mergeCell ref="W57:Y57"/>
     <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AC75:AE75"/>
     <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="AM21:AO21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15096,36 +15096,36 @@
     </row>
     <row r="2" spans="1:140" ht="14.25" customHeight="1">
       <c r="A2" s="50"/>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="230" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="K2" s="231" t="s">
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="K2" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231" t="s">
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231" t="s">
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="AF2" s="231" t="s">
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="AF2" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="231"/>
-      <c r="AH2" s="236"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="254"/>
       <c r="AI2" s="51"/>
       <c r="AP2" s="51"/>
       <c r="AQ2" s="51"/>
@@ -15231,36 +15231,36 @@
       <c r="A3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="230">
+      <c r="B3" s="234">
         <v>5</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="K3" s="230">
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="K3" s="234">
         <v>5</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230">
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234">
         <v>5</v>
       </c>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234">
         <v>5</v>
       </c>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="AF3" s="230" t="s">
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="AF3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="237"/>
+      <c r="AG3" s="234"/>
+      <c r="AH3" s="247"/>
     </row>
     <row r="4" spans="1:140">
       <c r="A4" s="52" t="s">
@@ -16252,31 +16252,31 @@
     </row>
     <row r="20" spans="1:34" ht="14.25" customHeight="1">
       <c r="A20" s="50"/>
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="H20" s="231" t="s">
+      <c r="C20" s="230"/>
+      <c r="D20" s="230"/>
+      <c r="H20" s="230" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="230">
+      <c r="B21" s="234">
         <v>3</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="230"/>
-      <c r="H21" s="230">
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="H21" s="234">
         <v>3</v>
       </c>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
@@ -16770,101 +16770,101 @@
     </row>
     <row r="38" spans="1:73" ht="14.25" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231" t="s">
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="231" t="s">
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="231"/>
-      <c r="J38" s="231"/>
-      <c r="N38" s="231" t="s">
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
+      <c r="N38" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="O38" s="231"/>
-      <c r="P38" s="236"/>
-      <c r="Q38" s="231" t="s">
+      <c r="O38" s="230"/>
+      <c r="P38" s="254"/>
+      <c r="Q38" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="R38" s="231"/>
-      <c r="S38" s="231"/>
-      <c r="T38" s="231" t="s">
+      <c r="R38" s="230"/>
+      <c r="S38" s="230"/>
+      <c r="T38" s="230" t="s">
         <v>118</v>
       </c>
-      <c r="U38" s="231"/>
-      <c r="V38" s="231"/>
-      <c r="W38" s="231" t="s">
+      <c r="U38" s="230"/>
+      <c r="V38" s="230"/>
+      <c r="W38" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="X38" s="231"/>
-      <c r="Y38" s="231"/>
-      <c r="Z38" s="231" t="s">
+      <c r="X38" s="230"/>
+      <c r="Y38" s="230"/>
+      <c r="Z38" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="AA38" s="231"/>
-      <c r="AB38" s="231"/>
-      <c r="AC38" s="231" t="s">
+      <c r="AA38" s="230"/>
+      <c r="AB38" s="230"/>
+      <c r="AC38" s="230" t="s">
         <v>152</v>
       </c>
-      <c r="AD38" s="231"/>
-      <c r="AE38" s="231"/>
+      <c r="AD38" s="230"/>
+      <c r="AE38" s="230"/>
     </row>
     <row r="39" spans="1:73">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="230" t="s">
+      <c r="B39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230" t="s">
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230" t="s">
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
-      <c r="N39" s="230">
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="N39" s="234">
         <v>5</v>
       </c>
-      <c r="O39" s="230"/>
-      <c r="P39" s="237"/>
-      <c r="Q39" s="230" t="s">
+      <c r="O39" s="234"/>
+      <c r="P39" s="247"/>
+      <c r="Q39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="R39" s="230"/>
-      <c r="S39" s="230"/>
-      <c r="T39" s="230" t="s">
+      <c r="R39" s="234"/>
+      <c r="S39" s="234"/>
+      <c r="T39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="U39" s="230"/>
-      <c r="V39" s="230"/>
-      <c r="W39" s="230" t="s">
+      <c r="U39" s="234"/>
+      <c r="V39" s="234"/>
+      <c r="W39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="X39" s="230"/>
-      <c r="Y39" s="230"/>
-      <c r="Z39" s="230" t="s">
+      <c r="X39" s="234"/>
+      <c r="Y39" s="234"/>
+      <c r="Z39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="AA39" s="230"/>
-      <c r="AB39" s="230"/>
-      <c r="AC39" s="230" t="s">
+      <c r="AA39" s="234"/>
+      <c r="AB39" s="234"/>
+      <c r="AC39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="AD39" s="230"/>
-      <c r="AE39" s="230"/>
+      <c r="AD39" s="234"/>
+      <c r="AE39" s="234"/>
     </row>
     <row r="40" spans="1:73" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -18446,311 +18446,311 @@
     </row>
     <row r="56" spans="1:91">
       <c r="A56" s="22"/>
-      <c r="B56" s="246" t="s">
+      <c r="B56" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="246"/>
-      <c r="D56" s="253"/>
-      <c r="E56" s="246" t="s">
+      <c r="C56" s="237"/>
+      <c r="D56" s="238"/>
+      <c r="E56" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="246"/>
-      <c r="G56" s="253"/>
-      <c r="H56" s="246" t="s">
+      <c r="F56" s="237"/>
+      <c r="G56" s="238"/>
+      <c r="H56" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="I56" s="246"/>
-      <c r="J56" s="253"/>
-      <c r="K56" s="246" t="s">
+      <c r="I56" s="237"/>
+      <c r="J56" s="238"/>
+      <c r="K56" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="L56" s="246"/>
-      <c r="M56" s="253"/>
-      <c r="N56" s="246" t="s">
+      <c r="L56" s="237"/>
+      <c r="M56" s="238"/>
+      <c r="N56" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="O56" s="246"/>
-      <c r="P56" s="253"/>
-      <c r="Q56" s="246" t="s">
+      <c r="O56" s="237"/>
+      <c r="P56" s="238"/>
+      <c r="Q56" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="R56" s="246"/>
-      <c r="S56" s="253"/>
-      <c r="T56" s="246" t="s">
+      <c r="R56" s="237"/>
+      <c r="S56" s="238"/>
+      <c r="T56" s="237" t="s">
         <v>164</v>
       </c>
-      <c r="U56" s="246"/>
-      <c r="V56" s="253"/>
-      <c r="W56" s="246" t="s">
+      <c r="U56" s="237"/>
+      <c r="V56" s="238"/>
+      <c r="W56" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="X56" s="246"/>
-      <c r="Y56" s="253"/>
-      <c r="Z56" s="246" t="s">
+      <c r="X56" s="237"/>
+      <c r="Y56" s="238"/>
+      <c r="Z56" s="237" t="s">
         <v>166</v>
       </c>
-      <c r="AA56" s="246"/>
-      <c r="AB56" s="253"/>
-      <c r="AC56" s="246" t="s">
+      <c r="AA56" s="237"/>
+      <c r="AB56" s="238"/>
+      <c r="AC56" s="237" t="s">
         <v>194</v>
       </c>
-      <c r="AD56" s="246"/>
-      <c r="AE56" s="253"/>
-      <c r="AF56" s="246" t="s">
+      <c r="AD56" s="237"/>
+      <c r="AE56" s="238"/>
+      <c r="AF56" s="237" t="s">
         <v>195</v>
       </c>
-      <c r="AG56" s="246"/>
-      <c r="AH56" s="253"/>
-      <c r="AI56" s="246" t="s">
+      <c r="AG56" s="237"/>
+      <c r="AH56" s="238"/>
+      <c r="AI56" s="237" t="s">
         <v>167</v>
       </c>
-      <c r="AJ56" s="246"/>
-      <c r="AK56" s="253"/>
-      <c r="AL56" s="246" t="s">
+      <c r="AJ56" s="237"/>
+      <c r="AK56" s="238"/>
+      <c r="AL56" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="AM56" s="246"/>
-      <c r="AN56" s="253"/>
-      <c r="AO56" s="246" t="s">
+      <c r="AM56" s="237"/>
+      <c r="AN56" s="238"/>
+      <c r="AO56" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="AP56" s="246"/>
-      <c r="AQ56" s="253"/>
-      <c r="AR56" s="246" t="s">
+      <c r="AP56" s="237"/>
+      <c r="AQ56" s="238"/>
+      <c r="AR56" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="AS56" s="246"/>
-      <c r="AT56" s="253"/>
-      <c r="AU56" s="246" t="s">
+      <c r="AS56" s="237"/>
+      <c r="AT56" s="238"/>
+      <c r="AU56" s="237" t="s">
         <v>163</v>
       </c>
-      <c r="AV56" s="246"/>
-      <c r="AW56" s="253"/>
-      <c r="AX56" s="246" t="s">
+      <c r="AV56" s="237"/>
+      <c r="AW56" s="238"/>
+      <c r="AX56" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="AY56" s="246"/>
-      <c r="AZ56" s="253"/>
-      <c r="BA56" s="246" t="s">
+      <c r="AY56" s="237"/>
+      <c r="AZ56" s="238"/>
+      <c r="BA56" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="BB56" s="246"/>
-      <c r="BC56" s="253"/>
-      <c r="BD56" s="246" t="s">
+      <c r="BB56" s="237"/>
+      <c r="BC56" s="238"/>
+      <c r="BD56" s="237" t="s">
         <v>198</v>
       </c>
-      <c r="BE56" s="246"/>
-      <c r="BF56" s="253"/>
-      <c r="BG56" s="246" t="s">
+      <c r="BE56" s="237"/>
+      <c r="BF56" s="238"/>
+      <c r="BG56" s="237" t="s">
         <v>199</v>
       </c>
-      <c r="BH56" s="246"/>
-      <c r="BI56" s="253"/>
-      <c r="BJ56" s="246" t="s">
+      <c r="BH56" s="237"/>
+      <c r="BI56" s="238"/>
+      <c r="BJ56" s="237" t="s">
         <v>200</v>
       </c>
-      <c r="BK56" s="246"/>
-      <c r="BL56" s="253"/>
-      <c r="BM56" s="246" t="s">
+      <c r="BK56" s="237"/>
+      <c r="BL56" s="238"/>
+      <c r="BM56" s="237" t="s">
         <v>201</v>
       </c>
-      <c r="BN56" s="246"/>
-      <c r="BO56" s="253"/>
-      <c r="BP56" s="246" t="s">
+      <c r="BN56" s="237"/>
+      <c r="BO56" s="238"/>
+      <c r="BP56" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="BQ56" s="246"/>
-      <c r="BR56" s="253"/>
-      <c r="BS56" s="246" t="s">
+      <c r="BQ56" s="237"/>
+      <c r="BR56" s="238"/>
+      <c r="BS56" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BT56" s="246"/>
-      <c r="BU56" s="253"/>
-      <c r="BV56" s="246" t="s">
+      <c r="BT56" s="237"/>
+      <c r="BU56" s="238"/>
+      <c r="BV56" s="237" t="s">
         <v>202</v>
       </c>
-      <c r="BW56" s="246"/>
-      <c r="BX56" s="253"/>
-      <c r="BY56" s="246" t="s">
+      <c r="BW56" s="237"/>
+      <c r="BX56" s="238"/>
+      <c r="BY56" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="BZ56" s="246"/>
-      <c r="CA56" s="253"/>
-      <c r="CB56" s="246" t="s">
+      <c r="BZ56" s="237"/>
+      <c r="CA56" s="238"/>
+      <c r="CB56" s="237" t="s">
         <v>165</v>
       </c>
-      <c r="CC56" s="246"/>
-      <c r="CD56" s="253"/>
-      <c r="CE56" s="246" t="s">
+      <c r="CC56" s="237"/>
+      <c r="CD56" s="238"/>
+      <c r="CE56" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="CF56" s="246"/>
-      <c r="CG56" s="253"/>
-      <c r="CH56" s="246" t="s">
+      <c r="CF56" s="237"/>
+      <c r="CG56" s="238"/>
+      <c r="CH56" s="237" t="s">
         <v>165</v>
       </c>
-      <c r="CI56" s="246"/>
-      <c r="CJ56" s="253"/>
-      <c r="CK56" s="246" t="s">
+      <c r="CI56" s="237"/>
+      <c r="CJ56" s="238"/>
+      <c r="CK56" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="CL56" s="246"/>
-      <c r="CM56" s="253"/>
+      <c r="CL56" s="237"/>
+      <c r="CM56" s="238"/>
     </row>
     <row r="57" spans="1:91">
       <c r="A57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="249" t="s">
+      <c r="B57" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="249"/>
-      <c r="D57" s="252"/>
-      <c r="E57" s="249" t="s">
+      <c r="C57" s="233"/>
+      <c r="D57" s="236"/>
+      <c r="E57" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="249"/>
-      <c r="G57" s="252"/>
-      <c r="H57" s="249" t="s">
+      <c r="F57" s="233"/>
+      <c r="G57" s="236"/>
+      <c r="H57" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="I57" s="249"/>
-      <c r="J57" s="252"/>
-      <c r="K57" s="249" t="s">
+      <c r="I57" s="233"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="L57" s="249"/>
-      <c r="M57" s="252"/>
-      <c r="N57" s="249" t="s">
+      <c r="L57" s="233"/>
+      <c r="M57" s="236"/>
+      <c r="N57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="O57" s="249"/>
-      <c r="P57" s="252"/>
-      <c r="Q57" s="249" t="s">
+      <c r="O57" s="233"/>
+      <c r="P57" s="236"/>
+      <c r="Q57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="R57" s="249"/>
-      <c r="S57" s="252"/>
-      <c r="T57" s="249" t="s">
+      <c r="R57" s="233"/>
+      <c r="S57" s="236"/>
+      <c r="T57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="U57" s="249"/>
-      <c r="V57" s="252"/>
-      <c r="W57" s="249" t="s">
+      <c r="U57" s="233"/>
+      <c r="V57" s="236"/>
+      <c r="W57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="X57" s="249"/>
-      <c r="Y57" s="252"/>
-      <c r="Z57" s="249" t="s">
+      <c r="X57" s="233"/>
+      <c r="Y57" s="236"/>
+      <c r="Z57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AA57" s="249"/>
-      <c r="AB57" s="252"/>
-      <c r="AC57" s="249" t="s">
+      <c r="AA57" s="233"/>
+      <c r="AB57" s="236"/>
+      <c r="AC57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AD57" s="249"/>
-      <c r="AE57" s="252"/>
-      <c r="AF57" s="249" t="s">
+      <c r="AD57" s="233"/>
+      <c r="AE57" s="236"/>
+      <c r="AF57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AG57" s="249"/>
-      <c r="AH57" s="252"/>
-      <c r="AI57" s="249" t="s">
+      <c r="AG57" s="233"/>
+      <c r="AH57" s="236"/>
+      <c r="AI57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AJ57" s="249"/>
-      <c r="AK57" s="252"/>
-      <c r="AL57" s="249" t="s">
+      <c r="AJ57" s="233"/>
+      <c r="AK57" s="236"/>
+      <c r="AL57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AM57" s="249"/>
-      <c r="AN57" s="252"/>
-      <c r="AO57" s="249" t="s">
+      <c r="AM57" s="233"/>
+      <c r="AN57" s="236"/>
+      <c r="AO57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AP57" s="249"/>
-      <c r="AQ57" s="252"/>
-      <c r="AR57" s="249" t="s">
+      <c r="AP57" s="233"/>
+      <c r="AQ57" s="236"/>
+      <c r="AR57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AS57" s="249"/>
-      <c r="AT57" s="252"/>
-      <c r="AU57" s="249" t="s">
+      <c r="AS57" s="233"/>
+      <c r="AT57" s="236"/>
+      <c r="AU57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AV57" s="249"/>
-      <c r="AW57" s="252"/>
-      <c r="AX57" s="249" t="s">
+      <c r="AV57" s="233"/>
+      <c r="AW57" s="236"/>
+      <c r="AX57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AY57" s="249"/>
-      <c r="AZ57" s="252"/>
-      <c r="BA57" s="249" t="s">
+      <c r="AY57" s="233"/>
+      <c r="AZ57" s="236"/>
+      <c r="BA57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BB57" s="249"/>
-      <c r="BC57" s="252"/>
-      <c r="BD57" s="249" t="s">
+      <c r="BB57" s="233"/>
+      <c r="BC57" s="236"/>
+      <c r="BD57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BE57" s="249"/>
-      <c r="BF57" s="252"/>
-      <c r="BG57" s="249" t="s">
+      <c r="BE57" s="233"/>
+      <c r="BF57" s="236"/>
+      <c r="BG57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BH57" s="249"/>
-      <c r="BI57" s="252"/>
-      <c r="BJ57" s="249" t="s">
+      <c r="BH57" s="233"/>
+      <c r="BI57" s="236"/>
+      <c r="BJ57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BK57" s="249"/>
-      <c r="BL57" s="252"/>
-      <c r="BM57" s="249" t="s">
+      <c r="BK57" s="233"/>
+      <c r="BL57" s="236"/>
+      <c r="BM57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BN57" s="249"/>
-      <c r="BO57" s="252"/>
-      <c r="BP57" s="249" t="s">
+      <c r="BN57" s="233"/>
+      <c r="BO57" s="236"/>
+      <c r="BP57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BQ57" s="249"/>
-      <c r="BR57" s="252"/>
-      <c r="BS57" s="249" t="s">
+      <c r="BQ57" s="233"/>
+      <c r="BR57" s="236"/>
+      <c r="BS57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BT57" s="249"/>
-      <c r="BU57" s="252"/>
-      <c r="BV57" s="249" t="s">
+      <c r="BT57" s="233"/>
+      <c r="BU57" s="236"/>
+      <c r="BV57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BW57" s="249"/>
-      <c r="BX57" s="252"/>
-      <c r="BY57" s="249" t="s">
+      <c r="BW57" s="233"/>
+      <c r="BX57" s="236"/>
+      <c r="BY57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="BZ57" s="249"/>
-      <c r="CA57" s="252"/>
-      <c r="CB57" s="249" t="s">
+      <c r="BZ57" s="233"/>
+      <c r="CA57" s="236"/>
+      <c r="CB57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="CC57" s="249"/>
-      <c r="CD57" s="252"/>
-      <c r="CE57" s="249" t="s">
+      <c r="CC57" s="233"/>
+      <c r="CD57" s="236"/>
+      <c r="CE57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="CF57" s="249"/>
-      <c r="CG57" s="252"/>
-      <c r="CH57" s="249" t="s">
+      <c r="CF57" s="233"/>
+      <c r="CG57" s="236"/>
+      <c r="CH57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="CI57" s="249"/>
-      <c r="CJ57" s="252"/>
-      <c r="CK57" s="249" t="s">
+      <c r="CI57" s="233"/>
+      <c r="CJ57" s="236"/>
+      <c r="CK57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="CL57" s="249"/>
-      <c r="CM57" s="252"/>
+      <c r="CL57" s="233"/>
+      <c r="CM57" s="236"/>
     </row>
     <row r="58" spans="1:91">
       <c r="A58" s="1" t="s">
@@ -23837,171 +23837,171 @@
     </row>
     <row r="74" spans="1:91">
       <c r="A74" s="22"/>
-      <c r="B74" s="235" t="s">
+      <c r="B74" s="241" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="245"/>
-      <c r="D74" s="245"/>
-      <c r="E74" s="231" t="s">
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="231" t="s">
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="230" t="s">
         <v>130</v>
       </c>
-      <c r="I74" s="245"/>
-      <c r="J74" s="245"/>
-      <c r="K74" s="231" t="s">
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="230" t="s">
         <v>131</v>
       </c>
-      <c r="L74" s="245"/>
-      <c r="M74" s="245"/>
-      <c r="N74" s="231" t="s">
+      <c r="L74" s="231"/>
+      <c r="M74" s="231"/>
+      <c r="N74" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="O74" s="245"/>
-      <c r="P74" s="245"/>
-      <c r="Q74" s="231" t="s">
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="R74" s="245"/>
-      <c r="S74" s="245"/>
-      <c r="T74" s="242" t="s">
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="243"/>
-      <c r="V74" s="244"/>
-      <c r="W74" s="231" t="s">
+      <c r="U74" s="252"/>
+      <c r="V74" s="253"/>
+      <c r="W74" s="230" t="s">
         <v>190</v>
       </c>
-      <c r="X74" s="245"/>
-      <c r="Y74" s="245"/>
-      <c r="Z74" s="231" t="s">
+      <c r="X74" s="231"/>
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="230" t="s">
         <v>192</v>
       </c>
-      <c r="AA74" s="245"/>
-      <c r="AB74" s="245"/>
-      <c r="AC74" s="231" t="s">
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231"/>
+      <c r="AC74" s="230" t="s">
         <v>133</v>
       </c>
-      <c r="AD74" s="245"/>
-      <c r="AE74" s="254"/>
-      <c r="AI74" s="235" t="s">
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="232"/>
+      <c r="AI74" s="241" t="s">
         <v>185</v>
       </c>
-      <c r="AJ74" s="245"/>
-      <c r="AK74" s="245"/>
-      <c r="AL74" s="231" t="s">
+      <c r="AJ74" s="231"/>
+      <c r="AK74" s="231"/>
+      <c r="AL74" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="AM74" s="245"/>
-      <c r="AN74" s="245"/>
-      <c r="AO74" s="231" t="s">
+      <c r="AM74" s="231"/>
+      <c r="AN74" s="231"/>
+      <c r="AO74" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="AP74" s="245"/>
-      <c r="AQ74" s="245"/>
-      <c r="AR74" s="231" t="s">
+      <c r="AP74" s="231"/>
+      <c r="AQ74" s="231"/>
+      <c r="AR74" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="AS74" s="245"/>
-      <c r="AT74" s="245"/>
-      <c r="AU74" s="231" t="s">
+      <c r="AS74" s="231"/>
+      <c r="AT74" s="231"/>
+      <c r="AU74" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="AV74" s="245"/>
-      <c r="AW74" s="245"/>
-      <c r="AX74" s="231" t="s">
+      <c r="AV74" s="231"/>
+      <c r="AW74" s="231"/>
+      <c r="AX74" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="AY74" s="245"/>
-      <c r="AZ74" s="245"/>
+      <c r="AY74" s="231"/>
+      <c r="AZ74" s="231"/>
     </row>
     <row r="75" spans="1:91" ht="14.25" customHeight="1">
       <c r="A75" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="234">
+      <c r="B75" s="240">
         <v>10</v>
       </c>
-      <c r="C75" s="250"/>
-      <c r="D75" s="250"/>
-      <c r="E75" s="230">
+      <c r="C75" s="235"/>
+      <c r="D75" s="235"/>
+      <c r="E75" s="234">
         <v>11</v>
       </c>
-      <c r="F75" s="250"/>
-      <c r="G75" s="250"/>
-      <c r="H75" s="230">
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="234">
         <v>10</v>
       </c>
-      <c r="I75" s="250"/>
-      <c r="J75" s="250"/>
-      <c r="K75" s="230">
+      <c r="I75" s="235"/>
+      <c r="J75" s="235"/>
+      <c r="K75" s="234">
         <v>9</v>
       </c>
-      <c r="L75" s="250"/>
-      <c r="M75" s="250"/>
-      <c r="N75" s="230">
+      <c r="L75" s="235"/>
+      <c r="M75" s="235"/>
+      <c r="N75" s="234">
         <v>10</v>
       </c>
-      <c r="O75" s="250"/>
-      <c r="P75" s="250"/>
-      <c r="Q75" s="230">
+      <c r="O75" s="235"/>
+      <c r="P75" s="235"/>
+      <c r="Q75" s="234">
         <v>11</v>
       </c>
-      <c r="R75" s="250"/>
-      <c r="S75" s="250"/>
-      <c r="T75" s="238">
+      <c r="R75" s="235"/>
+      <c r="S75" s="235"/>
+      <c r="T75" s="244">
         <v>11</v>
       </c>
-      <c r="U75" s="239"/>
-      <c r="V75" s="240"/>
-      <c r="W75" s="230">
+      <c r="U75" s="245"/>
+      <c r="V75" s="246"/>
+      <c r="W75" s="234">
         <v>11</v>
       </c>
-      <c r="X75" s="250"/>
-      <c r="Y75" s="250"/>
-      <c r="Z75" s="230">
+      <c r="X75" s="235"/>
+      <c r="Y75" s="235"/>
+      <c r="Z75" s="234">
         <v>10</v>
       </c>
-      <c r="AA75" s="250"/>
-      <c r="AB75" s="250"/>
-      <c r="AC75" s="230">
+      <c r="AA75" s="235"/>
+      <c r="AB75" s="235"/>
+      <c r="AC75" s="234">
         <v>11</v>
       </c>
-      <c r="AD75" s="250"/>
-      <c r="AE75" s="251"/>
-      <c r="AI75" s="234">
+      <c r="AD75" s="235"/>
+      <c r="AE75" s="239"/>
+      <c r="AI75" s="240">
         <v>10</v>
       </c>
-      <c r="AJ75" s="250"/>
-      <c r="AK75" s="250"/>
-      <c r="AL75" s="230">
+      <c r="AJ75" s="235"/>
+      <c r="AK75" s="235"/>
+      <c r="AL75" s="234">
         <v>11</v>
       </c>
-      <c r="AM75" s="250"/>
-      <c r="AN75" s="250"/>
-      <c r="AO75" s="230">
+      <c r="AM75" s="235"/>
+      <c r="AN75" s="235"/>
+      <c r="AO75" s="234">
         <v>9</v>
       </c>
-      <c r="AP75" s="250"/>
-      <c r="AQ75" s="250"/>
-      <c r="AR75" s="230">
+      <c r="AP75" s="235"/>
+      <c r="AQ75" s="235"/>
+      <c r="AR75" s="234">
         <v>9</v>
       </c>
-      <c r="AS75" s="250"/>
-      <c r="AT75" s="250"/>
-      <c r="AU75" s="230">
+      <c r="AS75" s="235"/>
+      <c r="AT75" s="235"/>
+      <c r="AU75" s="234">
         <v>9</v>
       </c>
-      <c r="AV75" s="250"/>
-      <c r="AW75" s="250"/>
-      <c r="AX75" s="230">
+      <c r="AV75" s="235"/>
+      <c r="AW75" s="235"/>
+      <c r="AX75" s="234">
         <v>9</v>
       </c>
-      <c r="AY75" s="250"/>
-      <c r="AZ75" s="250"/>
+      <c r="AY75" s="235"/>
+      <c r="AZ75" s="235"/>
     </row>
     <row r="76" spans="1:91" ht="14.25" customHeight="1">
       <c r="A76" s="1" t="s">
@@ -26405,6 +26405,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="AR75:AT75"/>
+    <mergeCell ref="AU75:AW75"/>
+    <mergeCell ref="AX75:AZ75"/>
+    <mergeCell ref="AC75:AE75"/>
+    <mergeCell ref="AI75:AK75"/>
+    <mergeCell ref="AL75:AN75"/>
+    <mergeCell ref="AO75:AQ75"/>
+    <mergeCell ref="AU74:AW74"/>
+    <mergeCell ref="AX74:AZ74"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="AI74:AK74"/>
+    <mergeCell ref="AL74:AN74"/>
+    <mergeCell ref="AO74:AQ74"/>
+    <mergeCell ref="AR74:AT74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="CH57:CJ57"/>
+    <mergeCell ref="CK57:CM57"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="BP57:BR57"/>
+    <mergeCell ref="BS57:BU57"/>
+    <mergeCell ref="BV57:BX57"/>
+    <mergeCell ref="BY57:CA57"/>
+    <mergeCell ref="CB57:CD57"/>
+    <mergeCell ref="CE57:CG57"/>
+    <mergeCell ref="AX57:AZ57"/>
+    <mergeCell ref="BA57:BC57"/>
+    <mergeCell ref="BD57:BF57"/>
+    <mergeCell ref="BG57:BI57"/>
+    <mergeCell ref="BJ57:BL57"/>
+    <mergeCell ref="BM57:BO57"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AL57:AN57"/>
+    <mergeCell ref="AO57:AQ57"/>
+    <mergeCell ref="AR57:AT57"/>
+    <mergeCell ref="AU57:AW57"/>
+    <mergeCell ref="CH56:CJ56"/>
+    <mergeCell ref="CK56:CM56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="BP56:BR56"/>
+    <mergeCell ref="BS56:BU56"/>
+    <mergeCell ref="BV56:BX56"/>
+    <mergeCell ref="BY56:CA56"/>
+    <mergeCell ref="CB56:CD56"/>
+    <mergeCell ref="CE56:CG56"/>
+    <mergeCell ref="AX56:AZ56"/>
+    <mergeCell ref="BA56:BC56"/>
+    <mergeCell ref="BD56:BF56"/>
+    <mergeCell ref="BG56:BI56"/>
+    <mergeCell ref="BJ56:BL56"/>
+    <mergeCell ref="BM56:BO56"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="AL56:AN56"/>
+    <mergeCell ref="AO56:AQ56"/>
+    <mergeCell ref="AR56:AT56"/>
+    <mergeCell ref="AU56:AW56"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="T39:V39"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="AF3:AH3"/>
@@ -26429,108 +26531,6 @@
     <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="T38:V38"/>
     <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="BJ56:BL56"/>
-    <mergeCell ref="BM56:BO56"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="AI56:AK56"/>
-    <mergeCell ref="AL56:AN56"/>
-    <mergeCell ref="AO56:AQ56"/>
-    <mergeCell ref="AR56:AT56"/>
-    <mergeCell ref="AU56:AW56"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AL57:AN57"/>
-    <mergeCell ref="AO57:AQ57"/>
-    <mergeCell ref="AR57:AT57"/>
-    <mergeCell ref="AU57:AW57"/>
-    <mergeCell ref="CH56:CJ56"/>
-    <mergeCell ref="CK56:CM56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="BP56:BR56"/>
-    <mergeCell ref="BS56:BU56"/>
-    <mergeCell ref="BV56:BX56"/>
-    <mergeCell ref="BY56:CA56"/>
-    <mergeCell ref="CB56:CD56"/>
-    <mergeCell ref="CE56:CG56"/>
-    <mergeCell ref="AX56:AZ56"/>
-    <mergeCell ref="BA56:BC56"/>
-    <mergeCell ref="BD56:BF56"/>
-    <mergeCell ref="BG56:BI56"/>
-    <mergeCell ref="CH57:CJ57"/>
-    <mergeCell ref="CK57:CM57"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="BP57:BR57"/>
-    <mergeCell ref="BS57:BU57"/>
-    <mergeCell ref="BV57:BX57"/>
-    <mergeCell ref="BY57:CA57"/>
-    <mergeCell ref="CB57:CD57"/>
-    <mergeCell ref="CE57:CG57"/>
-    <mergeCell ref="AX57:AZ57"/>
-    <mergeCell ref="BA57:BC57"/>
-    <mergeCell ref="BD57:BF57"/>
-    <mergeCell ref="BG57:BI57"/>
-    <mergeCell ref="BJ57:BL57"/>
-    <mergeCell ref="BM57:BO57"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="AI57:AK57"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AR75:AT75"/>
-    <mergeCell ref="AU75:AW75"/>
-    <mergeCell ref="AX75:AZ75"/>
-    <mergeCell ref="AC75:AE75"/>
-    <mergeCell ref="AI75:AK75"/>
-    <mergeCell ref="AL75:AN75"/>
-    <mergeCell ref="AO75:AQ75"/>
-    <mergeCell ref="AU74:AW74"/>
-    <mergeCell ref="AX74:AZ74"/>
-    <mergeCell ref="AC74:AE74"/>
-    <mergeCell ref="AI74:AK74"/>
-    <mergeCell ref="AL74:AN74"/>
-    <mergeCell ref="AO74:AQ74"/>
-    <mergeCell ref="AR74:AT74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26562,121 +26562,121 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="296" t="s">
         <v>607</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="291" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="255"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="262" t="s">
+      <c r="F2" s="295"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="300" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="262"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="256" t="s">
+      <c r="I2" s="300"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="257"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="270" t="s">
+      <c r="L2" s="294"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="256" t="s">
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="257"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="244" t="s">
+      <c r="R2" s="294"/>
+      <c r="S2" s="297"/>
+      <c r="T2" s="253" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="231"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="256" t="s">
+      <c r="U2" s="230"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="296" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="257"/>
-      <c r="Y2" s="257"/>
-      <c r="Z2" s="257" t="s">
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="257"/>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="255" t="s">
+      <c r="AA2" s="294"/>
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="295" t="s">
         <v>141</v>
       </c>
-      <c r="AD2" s="255"/>
-      <c r="AE2" s="255"/>
-      <c r="AF2" s="255" t="s">
+      <c r="AD2" s="295"/>
+      <c r="AE2" s="295"/>
+      <c r="AF2" s="295" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" s="255"/>
-      <c r="AH2" s="255"/>
+      <c r="AG2" s="295"/>
+      <c r="AH2" s="295"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="234">
+      <c r="B3" s="240">
         <v>5</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="234" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="230" t="s">
+      <c r="F3" s="234"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="234" t="s">
+      <c r="I3" s="234"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="240">
+      <c r="L3" s="234"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="246">
         <v>5</v>
       </c>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="234" t="s">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="230"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="240" t="s">
+      <c r="R3" s="234"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="230"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="234" t="s">
+      <c r="U3" s="234"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230" t="s">
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="230">
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="234">
         <v>5</v>
       </c>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230">
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234">
         <v>5</v>
       </c>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="230"/>
+      <c r="AG3" s="234"/>
+      <c r="AH3" s="234"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
@@ -28588,121 +28588,121 @@
     </row>
     <row r="20" spans="1:34" ht="14.25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="235" t="s">
+      <c r="B20" s="241" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="235" t="s">
+      <c r="C20" s="230"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="241" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="231"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="244" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="231"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="235" t="s">
+      <c r="I20" s="230"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="241" t="s">
         <v>594</v>
       </c>
-      <c r="L20" s="231"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="235" t="s">
+      <c r="L20" s="230"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="O20" s="231"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="235" t="s">
+      <c r="O20" s="230"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="231"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="231" t="s">
+      <c r="R20" s="230"/>
+      <c r="S20" s="254"/>
+      <c r="T20" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="231"/>
-      <c r="V20" s="236"/>
-      <c r="W20" s="244" t="s">
+      <c r="U20" s="230"/>
+      <c r="V20" s="254"/>
+      <c r="W20" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="242"/>
-      <c r="Z20" s="235" t="s">
+      <c r="X20" s="230"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="236"/>
-      <c r="AC20" s="244" t="s">
+      <c r="AA20" s="230"/>
+      <c r="AB20" s="254"/>
+      <c r="AC20" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231" t="s">
+      <c r="AD20" s="230"/>
+      <c r="AE20" s="230"/>
+      <c r="AF20" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="AG20" s="231"/>
-      <c r="AH20" s="231"/>
+      <c r="AG20" s="230"/>
+      <c r="AH20" s="230"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="234" t="s">
+      <c r="B21" s="240" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="234">
+      <c r="C21" s="234"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="240">
         <v>3</v>
       </c>
-      <c r="F21" s="230"/>
-      <c r="G21" s="237"/>
-      <c r="H21" s="240">
+      <c r="F21" s="234"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="246">
         <v>5</v>
       </c>
-      <c r="I21" s="230"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="234">
+      <c r="I21" s="234"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="240">
         <v>3</v>
       </c>
-      <c r="L21" s="230"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="234">
+      <c r="L21" s="234"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="240">
         <v>5</v>
       </c>
-      <c r="O21" s="230"/>
-      <c r="P21" s="237"/>
-      <c r="Q21" s="234">
+      <c r="O21" s="234"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="240">
         <v>3</v>
       </c>
-      <c r="R21" s="230"/>
-      <c r="S21" s="237"/>
-      <c r="T21" s="230">
+      <c r="R21" s="234"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="234">
         <v>5</v>
       </c>
-      <c r="U21" s="230"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="240">
+      <c r="U21" s="234"/>
+      <c r="V21" s="247"/>
+      <c r="W21" s="246">
         <v>5</v>
       </c>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="238"/>
-      <c r="Z21" s="234" t="s">
+      <c r="X21" s="234"/>
+      <c r="Y21" s="244"/>
+      <c r="Z21" s="240" t="s">
         <v>259</v>
       </c>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="237"/>
-      <c r="AC21" s="240">
+      <c r="AA21" s="234"/>
+      <c r="AB21" s="247"/>
+      <c r="AC21" s="246">
         <v>3</v>
       </c>
-      <c r="AD21" s="230"/>
-      <c r="AE21" s="230"/>
-      <c r="AF21" s="230">
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="234"/>
+      <c r="AF21" s="234">
         <v>5</v>
       </c>
-      <c r="AG21" s="230"/>
-      <c r="AH21" s="230"/>
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="234"/>
     </row>
     <row r="22" spans="1:34" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -30637,46 +30637,46 @@
     </row>
     <row r="38" spans="1:48" ht="14.25" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231" t="s">
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230" t="s">
         <v>598</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="231" t="s">
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="231"/>
-      <c r="J38" s="231"/>
-      <c r="N38" s="248" t="s">
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
+      <c r="N38" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="O38" s="247"/>
-      <c r="P38" s="247"/>
+      <c r="O38" s="242"/>
+      <c r="P38" s="242"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="230" t="s">
+      <c r="B39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230" t="s">
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230" t="s">
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
       <c r="N39" s="25" t="s">
         <v>67</v>
       </c>
@@ -31428,131 +31428,131 @@
     </row>
     <row r="56" spans="1:78" ht="14.25" customHeight="1">
       <c r="A56" s="22"/>
-      <c r="B56" s="277" t="s">
+      <c r="B56" s="280" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="271"/>
-      <c r="D56" s="278"/>
-      <c r="E56" s="279" t="s">
+      <c r="C56" s="281"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="271"/>
-      <c r="G56" s="280"/>
-      <c r="H56" s="281" t="s">
+      <c r="F56" s="281"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="274" t="s">
         <v>177</v>
       </c>
-      <c r="I56" s="282"/>
-      <c r="J56" s="283"/>
-      <c r="K56" s="271" t="s">
+      <c r="I56" s="272"/>
+      <c r="J56" s="273"/>
+      <c r="K56" s="281" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="271"/>
-      <c r="M56" s="271"/>
-      <c r="N56" s="271" t="s">
+      <c r="L56" s="281"/>
+      <c r="M56" s="281"/>
+      <c r="N56" s="281" t="s">
         <v>61</v>
       </c>
-      <c r="O56" s="271"/>
-      <c r="P56" s="271"/>
-      <c r="Q56" s="272" t="s">
+      <c r="O56" s="281"/>
+      <c r="P56" s="281"/>
+      <c r="Q56" s="275" t="s">
         <v>602</v>
       </c>
-      <c r="R56" s="272"/>
-      <c r="S56" s="273"/>
-      <c r="T56" s="292" t="s">
+      <c r="R56" s="275"/>
+      <c r="S56" s="276"/>
+      <c r="T56" s="269" t="s">
         <v>127</v>
       </c>
-      <c r="U56" s="293"/>
-      <c r="V56" s="294"/>
-      <c r="W56" s="274" t="s">
+      <c r="U56" s="270"/>
+      <c r="V56" s="271"/>
+      <c r="W56" s="277" t="s">
         <v>173</v>
       </c>
-      <c r="X56" s="272"/>
-      <c r="Y56" s="275"/>
-      <c r="Z56" s="289" t="s">
+      <c r="X56" s="275"/>
+      <c r="Y56" s="278"/>
+      <c r="Z56" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="AA56" s="246"/>
-      <c r="AB56" s="246"/>
-      <c r="AC56" s="246" t="s">
+      <c r="AA56" s="237"/>
+      <c r="AB56" s="237"/>
+      <c r="AC56" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="AD56" s="246"/>
-      <c r="AE56" s="290"/>
-      <c r="AF56" s="291" t="s">
+      <c r="AD56" s="237"/>
+      <c r="AE56" s="267"/>
+      <c r="AF56" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="AG56" s="246"/>
-      <c r="AH56" s="253"/>
-      <c r="AI56" s="291" t="s">
+      <c r="AG56" s="237"/>
+      <c r="AH56" s="238"/>
+      <c r="AI56" s="268" t="s">
         <v>159</v>
       </c>
-      <c r="AJ56" s="246"/>
-      <c r="AK56" s="253"/>
-      <c r="AL56" s="289" t="s">
+      <c r="AJ56" s="237"/>
+      <c r="AK56" s="238"/>
+      <c r="AL56" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="AM56" s="246"/>
-      <c r="AN56" s="246"/>
-      <c r="AO56" s="246" t="s">
+      <c r="AM56" s="237"/>
+      <c r="AN56" s="237"/>
+      <c r="AO56" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="AP56" s="246"/>
-      <c r="AQ56" s="246"/>
-      <c r="AR56" s="246" t="s">
+      <c r="AP56" s="237"/>
+      <c r="AQ56" s="237"/>
+      <c r="AR56" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="AS56" s="246"/>
-      <c r="AT56" s="290"/>
-      <c r="AU56" s="282" t="s">
+      <c r="AS56" s="237"/>
+      <c r="AT56" s="267"/>
+      <c r="AU56" s="272" t="s">
         <v>162</v>
       </c>
-      <c r="AV56" s="282"/>
-      <c r="AW56" s="283"/>
-      <c r="AX56" s="281" t="s">
+      <c r="AV56" s="272"/>
+      <c r="AW56" s="273"/>
+      <c r="AX56" s="274" t="s">
         <v>164</v>
       </c>
-      <c r="AY56" s="282"/>
-      <c r="AZ56" s="283"/>
-      <c r="BA56" s="246" t="s">
+      <c r="AY56" s="272"/>
+      <c r="AZ56" s="273"/>
+      <c r="BA56" s="237" t="s">
         <v>125</v>
       </c>
-      <c r="BB56" s="246"/>
-      <c r="BC56" s="253"/>
-      <c r="BD56" s="246" t="s">
+      <c r="BB56" s="237"/>
+      <c r="BC56" s="238"/>
+      <c r="BD56" s="237" t="s">
         <v>166</v>
       </c>
-      <c r="BE56" s="246"/>
-      <c r="BF56" s="253"/>
-      <c r="BG56" s="246" t="s">
+      <c r="BE56" s="237"/>
+      <c r="BF56" s="238"/>
+      <c r="BG56" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="BH56" s="246"/>
-      <c r="BI56" s="253"/>
-      <c r="BJ56" s="246" t="s">
+      <c r="BH56" s="237"/>
+      <c r="BI56" s="238"/>
+      <c r="BJ56" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="BK56" s="246"/>
-      <c r="BL56" s="253"/>
-      <c r="BM56" s="246" t="s">
+      <c r="BK56" s="237"/>
+      <c r="BL56" s="238"/>
+      <c r="BM56" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="BN56" s="246"/>
-      <c r="BO56" s="253"/>
-      <c r="BP56" s="246" t="s">
+      <c r="BN56" s="237"/>
+      <c r="BO56" s="238"/>
+      <c r="BP56" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="BQ56" s="246"/>
-      <c r="BR56" s="253"/>
-      <c r="BS56" s="246" t="s">
+      <c r="BQ56" s="237"/>
+      <c r="BR56" s="238"/>
+      <c r="BS56" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="BT56" s="246"/>
-      <c r="BU56" s="253"/>
-      <c r="BV56" s="246" t="s">
+      <c r="BT56" s="237"/>
+      <c r="BU56" s="238"/>
+      <c r="BV56" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="BW56" s="246"/>
-      <c r="BX56" s="246"/>
+      <c r="BW56" s="237"/>
+      <c r="BX56" s="237"/>
       <c r="BZ56" s="159" t="s">
         <v>249</v>
       </c>
@@ -31575,11 +31575,11 @@
         <v>146</v>
       </c>
       <c r="G57" s="160"/>
-      <c r="H57" s="301" t="s">
+      <c r="H57" s="260" t="s">
         <v>230</v>
       </c>
-      <c r="I57" s="285"/>
-      <c r="J57" s="286"/>
+      <c r="I57" s="258"/>
+      <c r="J57" s="259"/>
       <c r="K57" s="25" t="s">
         <v>67</v>
       </c>
@@ -31594,106 +31594,106 @@
         <v>147</v>
       </c>
       <c r="P57" s="25"/>
-      <c r="Q57" s="249" t="s">
+      <c r="Q57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="R57" s="249"/>
-      <c r="S57" s="288"/>
-      <c r="T57" s="284" t="s">
+      <c r="R57" s="233"/>
+      <c r="S57" s="265"/>
+      <c r="T57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="U57" s="285"/>
-      <c r="V57" s="286"/>
-      <c r="W57" s="284" t="s">
+      <c r="U57" s="258"/>
+      <c r="V57" s="259"/>
+      <c r="W57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="X57" s="285"/>
-      <c r="Y57" s="286"/>
-      <c r="Z57" s="287" t="s">
+      <c r="X57" s="258"/>
+      <c r="Y57" s="259"/>
+      <c r="Z57" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="AA57" s="249"/>
-      <c r="AB57" s="249"/>
-      <c r="AC57" s="284" t="s">
+      <c r="AA57" s="233"/>
+      <c r="AB57" s="233"/>
+      <c r="AC57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="AD57" s="285"/>
-      <c r="AE57" s="285"/>
-      <c r="AF57" s="276" t="s">
+      <c r="AD57" s="258"/>
+      <c r="AE57" s="258"/>
+      <c r="AF57" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="AG57" s="249"/>
-      <c r="AH57" s="252"/>
-      <c r="AI57" s="276" t="s">
+      <c r="AG57" s="233"/>
+      <c r="AH57" s="236"/>
+      <c r="AI57" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="AJ57" s="249"/>
-      <c r="AK57" s="252"/>
-      <c r="AL57" s="287" t="s">
+      <c r="AJ57" s="233"/>
+      <c r="AK57" s="236"/>
+      <c r="AL57" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="AM57" s="249"/>
-      <c r="AN57" s="249"/>
-      <c r="AO57" s="249" t="s">
+      <c r="AM57" s="233"/>
+      <c r="AN57" s="233"/>
+      <c r="AO57" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="AP57" s="249"/>
-      <c r="AQ57" s="249"/>
-      <c r="AR57" s="249" t="s">
+      <c r="AP57" s="233"/>
+      <c r="AQ57" s="233"/>
+      <c r="AR57" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="AS57" s="249"/>
-      <c r="AT57" s="288"/>
-      <c r="AU57" s="285" t="s">
+      <c r="AS57" s="233"/>
+      <c r="AT57" s="265"/>
+      <c r="AU57" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="AV57" s="285"/>
-      <c r="AW57" s="286"/>
-      <c r="AX57" s="284" t="s">
+      <c r="AV57" s="258"/>
+      <c r="AW57" s="259"/>
+      <c r="AX57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="AY57" s="285"/>
-      <c r="AZ57" s="286"/>
-      <c r="BA57" s="284" t="s">
+      <c r="AY57" s="258"/>
+      <c r="AZ57" s="259"/>
+      <c r="BA57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BB57" s="285"/>
-      <c r="BC57" s="286"/>
-      <c r="BD57" s="284" t="s">
+      <c r="BB57" s="258"/>
+      <c r="BC57" s="259"/>
+      <c r="BD57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BE57" s="285"/>
-      <c r="BF57" s="286"/>
-      <c r="BG57" s="284" t="s">
+      <c r="BE57" s="258"/>
+      <c r="BF57" s="259"/>
+      <c r="BG57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BH57" s="285"/>
-      <c r="BI57" s="286"/>
-      <c r="BJ57" s="284" t="s">
+      <c r="BH57" s="258"/>
+      <c r="BI57" s="259"/>
+      <c r="BJ57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BK57" s="285"/>
-      <c r="BL57" s="286"/>
-      <c r="BM57" s="284" t="s">
+      <c r="BK57" s="258"/>
+      <c r="BL57" s="259"/>
+      <c r="BM57" s="257" t="s">
         <v>70</v>
       </c>
-      <c r="BN57" s="285"/>
-      <c r="BO57" s="286"/>
-      <c r="BP57" s="284" t="s">
+      <c r="BN57" s="258"/>
+      <c r="BO57" s="259"/>
+      <c r="BP57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BQ57" s="285"/>
-      <c r="BR57" s="286"/>
-      <c r="BS57" s="284" t="s">
+      <c r="BQ57" s="258"/>
+      <c r="BR57" s="259"/>
+      <c r="BS57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BT57" s="285"/>
-      <c r="BU57" s="286"/>
-      <c r="BV57" s="249" t="s">
+      <c r="BT57" s="258"/>
+      <c r="BU57" s="259"/>
+      <c r="BV57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="BW57" s="249"/>
-      <c r="BX57" s="249"/>
+      <c r="BW57" s="233"/>
+      <c r="BX57" s="233"/>
       <c r="BZ57">
         <v>2</v>
       </c>
@@ -35979,111 +35979,111 @@
     </row>
     <row r="74" spans="1:78">
       <c r="A74" s="22"/>
-      <c r="B74" s="235" t="s">
+      <c r="B74" s="241" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="245"/>
-      <c r="D74" s="254"/>
-      <c r="E74" s="244" t="s">
+      <c r="C74" s="231"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="245"/>
-      <c r="G74" s="297"/>
-      <c r="H74" s="235" t="s">
+      <c r="F74" s="231"/>
+      <c r="G74" s="261"/>
+      <c r="H74" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="I74" s="245"/>
-      <c r="J74" s="254"/>
-      <c r="K74" s="244" t="s">
+      <c r="I74" s="231"/>
+      <c r="J74" s="232"/>
+      <c r="K74" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="L74" s="245"/>
-      <c r="M74" s="297"/>
-      <c r="N74" s="235" t="s">
+      <c r="L74" s="231"/>
+      <c r="M74" s="261"/>
+      <c r="N74" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="O74" s="245"/>
-      <c r="P74" s="254"/>
-      <c r="Q74" s="295" t="s">
+      <c r="O74" s="231"/>
+      <c r="P74" s="232"/>
+      <c r="Q74" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="R74" s="243"/>
-      <c r="S74" s="296"/>
-      <c r="T74" s="235" t="s">
+      <c r="R74" s="252"/>
+      <c r="S74" s="264"/>
+      <c r="T74" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="U74" s="245"/>
-      <c r="V74" s="297"/>
-      <c r="W74" s="235" t="s">
+      <c r="U74" s="231"/>
+      <c r="V74" s="261"/>
+      <c r="W74" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="X74" s="245"/>
-      <c r="Y74" s="254"/>
-      <c r="Z74" s="235" t="s">
+      <c r="X74" s="231"/>
+      <c r="Y74" s="232"/>
+      <c r="Z74" s="241" t="s">
         <v>190</v>
       </c>
-      <c r="AA74" s="245"/>
-      <c r="AB74" s="245"/>
-      <c r="AC74" s="244" t="s">
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231"/>
+      <c r="AC74" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="AD74" s="245"/>
-      <c r="AE74" s="254"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="232"/>
     </row>
     <row r="75" spans="1:78">
       <c r="A75" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="234">
+      <c r="B75" s="240">
         <v>10</v>
       </c>
-      <c r="C75" s="250"/>
-      <c r="D75" s="251"/>
-      <c r="E75" s="240">
+      <c r="C75" s="235"/>
+      <c r="D75" s="239"/>
+      <c r="E75" s="246">
         <v>11</v>
       </c>
-      <c r="F75" s="250"/>
-      <c r="G75" s="298"/>
-      <c r="H75" s="234">
+      <c r="F75" s="235"/>
+      <c r="G75" s="262"/>
+      <c r="H75" s="240">
         <v>10</v>
       </c>
-      <c r="I75" s="250"/>
-      <c r="J75" s="251"/>
-      <c r="K75" s="240">
+      <c r="I75" s="235"/>
+      <c r="J75" s="239"/>
+      <c r="K75" s="246">
         <v>9</v>
       </c>
-      <c r="L75" s="250"/>
-      <c r="M75" s="298"/>
-      <c r="N75" s="234">
+      <c r="L75" s="235"/>
+      <c r="M75" s="262"/>
+      <c r="N75" s="240">
         <v>10</v>
       </c>
-      <c r="O75" s="250"/>
-      <c r="P75" s="251"/>
-      <c r="Q75" s="299">
+      <c r="O75" s="235"/>
+      <c r="P75" s="239"/>
+      <c r="Q75" s="255">
         <v>11</v>
       </c>
-      <c r="R75" s="239"/>
-      <c r="S75" s="300"/>
-      <c r="T75" s="234">
+      <c r="R75" s="245"/>
+      <c r="S75" s="256"/>
+      <c r="T75" s="240">
         <v>10</v>
       </c>
-      <c r="U75" s="250"/>
-      <c r="V75" s="298"/>
-      <c r="W75" s="234">
+      <c r="U75" s="235"/>
+      <c r="V75" s="262"/>
+      <c r="W75" s="240">
         <v>11</v>
       </c>
-      <c r="X75" s="250"/>
-      <c r="Y75" s="251"/>
-      <c r="Z75" s="234">
+      <c r="X75" s="235"/>
+      <c r="Y75" s="239"/>
+      <c r="Z75" s="240">
         <v>11</v>
       </c>
-      <c r="AA75" s="250"/>
-      <c r="AB75" s="250"/>
-      <c r="AC75" s="240">
+      <c r="AA75" s="235"/>
+      <c r="AB75" s="235"/>
+      <c r="AC75" s="246">
         <v>11</v>
       </c>
-      <c r="AD75" s="250"/>
-      <c r="AE75" s="251"/>
+      <c r="AD75" s="235"/>
+      <c r="AE75" s="239"/>
     </row>
     <row r="76" spans="1:78">
       <c r="A76" s="1" t="s">
@@ -37824,71 +37824,71 @@
     </row>
     <row r="93" spans="1:31">
       <c r="A93" s="22"/>
-      <c r="B93" s="264" t="s">
+      <c r="B93" s="286" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="247"/>
-      <c r="D93" s="247"/>
-      <c r="E93" s="264" t="s">
+      <c r="C93" s="242"/>
+      <c r="D93" s="242"/>
+      <c r="E93" s="286" t="s">
         <v>228</v>
       </c>
-      <c r="F93" s="247"/>
-      <c r="G93" s="247"/>
-      <c r="I93" s="235" t="s">
+      <c r="F93" s="242"/>
+      <c r="G93" s="242"/>
+      <c r="I93" s="241" t="s">
         <v>183</v>
       </c>
-      <c r="J93" s="245"/>
-      <c r="K93" s="254"/>
-      <c r="L93" s="235" t="s">
+      <c r="J93" s="231"/>
+      <c r="K93" s="232"/>
+      <c r="L93" s="241" t="s">
         <v>186</v>
       </c>
-      <c r="M93" s="245"/>
-      <c r="N93" s="254"/>
-      <c r="O93" s="235" t="s">
+      <c r="M93" s="231"/>
+      <c r="N93" s="232"/>
+      <c r="O93" s="241" t="s">
         <v>73</v>
       </c>
-      <c r="P93" s="245"/>
-      <c r="Q93" s="254"/>
-      <c r="R93" s="259" t="s">
+      <c r="P93" s="231"/>
+      <c r="Q93" s="232"/>
+      <c r="R93" s="291" t="s">
         <v>241</v>
       </c>
-      <c r="S93" s="245"/>
-      <c r="T93" s="254"/>
+      <c r="S93" s="231"/>
+      <c r="T93" s="232"/>
     </row>
     <row r="94" spans="1:31">
       <c r="A94" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="265" t="s">
+      <c r="B94" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="266"/>
-      <c r="D94" s="267"/>
-      <c r="E94" s="265" t="s">
+      <c r="C94" s="288"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="266"/>
-      <c r="G94" s="268"/>
-      <c r="I94" s="234">
+      <c r="F94" s="288"/>
+      <c r="G94" s="290"/>
+      <c r="I94" s="240">
         <v>10</v>
       </c>
-      <c r="J94" s="250"/>
-      <c r="K94" s="251"/>
-      <c r="L94" s="234">
+      <c r="J94" s="235"/>
+      <c r="K94" s="239"/>
+      <c r="L94" s="240">
         <v>11</v>
       </c>
-      <c r="M94" s="250"/>
-      <c r="N94" s="251"/>
-      <c r="O94" s="234">
+      <c r="M94" s="235"/>
+      <c r="N94" s="239"/>
+      <c r="O94" s="240">
         <v>8</v>
       </c>
-      <c r="P94" s="250"/>
-      <c r="Q94" s="251"/>
-      <c r="R94" s="269">
+      <c r="P94" s="235"/>
+      <c r="Q94" s="239"/>
+      <c r="R94" s="292">
         <v>9</v>
       </c>
-      <c r="S94" s="250"/>
-      <c r="T94" s="251"/>
+      <c r="S94" s="235"/>
+      <c r="T94" s="239"/>
     </row>
     <row r="95" spans="1:31">
       <c r="A95" s="1" t="s">
@@ -39018,62 +39018,55 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="BS57:BU57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="AC74:AE74"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="AC75:AE75"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="BG57:BI57"/>
-    <mergeCell ref="BJ57:BL57"/>
-    <mergeCell ref="BM57:BO57"/>
-    <mergeCell ref="BP57:BR57"/>
-    <mergeCell ref="AU57:AW57"/>
-    <mergeCell ref="AX57:AZ57"/>
-    <mergeCell ref="BA57:BC57"/>
-    <mergeCell ref="BD57:BF57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="AR57:AT57"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="AI56:AK56"/>
-    <mergeCell ref="BS56:BU56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="AL56:AN56"/>
-    <mergeCell ref="AO56:AQ56"/>
-    <mergeCell ref="AR56:AT56"/>
-    <mergeCell ref="BG56:BI56"/>
-    <mergeCell ref="BJ56:BL56"/>
-    <mergeCell ref="BM56:BO56"/>
-    <mergeCell ref="BP56:BR56"/>
-    <mergeCell ref="AU56:AW56"/>
-    <mergeCell ref="AX56:AZ56"/>
-    <mergeCell ref="BA56:BC56"/>
-    <mergeCell ref="BD56:BF56"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="Q56:S56"/>
     <mergeCell ref="BV56:BX56"/>
     <mergeCell ref="W56:Y56"/>
@@ -39098,55 +39091,62 @@
     <mergeCell ref="AC57:AE57"/>
     <mergeCell ref="AL57:AN57"/>
     <mergeCell ref="AO57:AQ57"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="BS56:BU56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="AL56:AN56"/>
+    <mergeCell ref="AO56:AQ56"/>
+    <mergeCell ref="AR56:AT56"/>
+    <mergeCell ref="BG56:BI56"/>
+    <mergeCell ref="BJ56:BL56"/>
+    <mergeCell ref="BM56:BO56"/>
+    <mergeCell ref="BP56:BR56"/>
+    <mergeCell ref="AU56:AW56"/>
+    <mergeCell ref="AX56:AZ56"/>
+    <mergeCell ref="BA56:BC56"/>
+    <mergeCell ref="BD56:BF56"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="AC75:AE75"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="BS57:BU57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="BG57:BI57"/>
+    <mergeCell ref="BJ57:BL57"/>
+    <mergeCell ref="BM57:BO57"/>
+    <mergeCell ref="BP57:BR57"/>
+    <mergeCell ref="AU57:AW57"/>
+    <mergeCell ref="AX57:AZ57"/>
+    <mergeCell ref="BA57:BC57"/>
+    <mergeCell ref="BD57:BF57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="AR57:AT57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39177,121 +39177,121 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="291" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="255"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="262" t="s">
+      <c r="F2" s="295"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="300" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="304" t="s">
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="303" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304" t="s">
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="305" t="s">
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="304"/>
-      <c r="S2" s="306"/>
-      <c r="T2" s="303" t="s">
+      <c r="R2" s="303"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="311" t="s">
         <v>240</v>
       </c>
-      <c r="U2" s="255"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="305" t="s">
+      <c r="U2" s="295"/>
+      <c r="V2" s="298"/>
+      <c r="W2" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="255" t="s">
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="295" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="255"/>
-      <c r="AB2" s="302"/>
-      <c r="AC2" s="262" t="s">
+      <c r="AA2" s="295"/>
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="300" t="s">
         <v>141</v>
       </c>
-      <c r="AD2" s="262"/>
-      <c r="AE2" s="262"/>
-      <c r="AF2" s="257" t="s">
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="294" t="s">
         <v>232</v>
       </c>
-      <c r="AG2" s="257"/>
-      <c r="AH2" s="257"/>
+      <c r="AG2" s="294"/>
+      <c r="AH2" s="294"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="234">
+      <c r="B3" s="240">
         <v>5</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="234" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="230" t="s">
+      <c r="F3" s="234"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230" t="s">
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230">
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234">
         <v>5</v>
       </c>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="234" t="s">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="230"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="240" t="s">
+      <c r="R3" s="234"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="230"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="234" t="s">
+      <c r="U3" s="234"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230" t="s">
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="230">
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="234">
         <v>5</v>
       </c>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230">
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234">
         <v>5</v>
       </c>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="230"/>
+      <c r="AG3" s="234"/>
+      <c r="AH3" s="234"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
@@ -41202,121 +41202,121 @@
     </row>
     <row r="20" spans="1:34" ht="14.25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="309" t="s">
+      <c r="B20" s="305" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="262"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="235" t="s">
+      <c r="C20" s="300"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="241" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="231"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="235" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="231"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="305" t="s">
+      <c r="I20" s="230"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="302" t="s">
         <v>594</v>
       </c>
-      <c r="L20" s="304"/>
-      <c r="M20" s="306"/>
-      <c r="N20" s="305" t="s">
+      <c r="L20" s="303"/>
+      <c r="M20" s="304"/>
+      <c r="N20" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="304"/>
-      <c r="P20" s="306"/>
-      <c r="Q20" s="270" t="s">
+      <c r="O20" s="303"/>
+      <c r="P20" s="304"/>
+      <c r="Q20" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="257"/>
-      <c r="S20" s="258"/>
-      <c r="T20" s="231" t="s">
+      <c r="R20" s="294"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="235" t="s">
+      <c r="U20" s="230"/>
+      <c r="V20" s="230"/>
+      <c r="W20" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="236"/>
-      <c r="Z20" s="311" t="s">
+      <c r="X20" s="230"/>
+      <c r="Y20" s="254"/>
+      <c r="Z20" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="AA20" s="262"/>
-      <c r="AB20" s="262"/>
-      <c r="AC20" s="235" t="s">
+      <c r="AA20" s="300"/>
+      <c r="AB20" s="300"/>
+      <c r="AC20" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="236"/>
-      <c r="AF20" s="231" t="s">
+      <c r="AD20" s="230"/>
+      <c r="AE20" s="254"/>
+      <c r="AF20" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="AG20" s="231"/>
-      <c r="AH20" s="231"/>
+      <c r="AG20" s="230"/>
+      <c r="AH20" s="230"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="234">
+      <c r="B21" s="240">
         <v>3</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="269" t="s">
+      <c r="C21" s="234"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="292" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="230"/>
-      <c r="G21" s="237"/>
-      <c r="H21" s="234">
+      <c r="F21" s="234"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="240">
         <v>5</v>
       </c>
-      <c r="I21" s="230"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="234">
+      <c r="I21" s="234"/>
+      <c r="J21" s="247"/>
+      <c r="K21" s="240">
         <v>3</v>
       </c>
-      <c r="L21" s="230"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="234">
+      <c r="L21" s="234"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="240">
         <v>5</v>
       </c>
-      <c r="O21" s="230"/>
-      <c r="P21" s="237"/>
-      <c r="Q21" s="240">
+      <c r="O21" s="234"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="246">
         <v>3</v>
       </c>
-      <c r="R21" s="230"/>
-      <c r="S21" s="237"/>
-      <c r="T21" s="230">
+      <c r="R21" s="234"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="234">
         <v>5</v>
       </c>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="234">
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="240">
         <v>5</v>
       </c>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="237"/>
-      <c r="Z21" s="240">
+      <c r="X21" s="234"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="246">
         <v>4</v>
       </c>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="230"/>
-      <c r="AC21" s="234">
+      <c r="AA21" s="234"/>
+      <c r="AB21" s="234"/>
+      <c r="AC21" s="240">
         <v>3</v>
       </c>
-      <c r="AD21" s="230"/>
-      <c r="AE21" s="237"/>
-      <c r="AF21" s="230">
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="247"/>
+      <c r="AF21" s="234">
         <v>5</v>
       </c>
-      <c r="AG21" s="230"/>
-      <c r="AH21" s="230"/>
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="234"/>
     </row>
     <row r="22" spans="1:34" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -43263,41 +43263,41 @@
     </row>
     <row r="38" spans="1:48" ht="14.25" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231" t="s">
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="231" t="s">
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="231"/>
-      <c r="J38" s="231"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="230" t="s">
+      <c r="B39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230" t="s">
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230" t="s">
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
     </row>
     <row r="40" spans="1:48" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -43877,136 +43877,136 @@
     </row>
     <row r="56" spans="1:79" ht="14.25" customHeight="1">
       <c r="A56" s="22"/>
-      <c r="B56" s="248" t="s">
+      <c r="B56" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="247"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="247" t="s">
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="247"/>
-      <c r="G56" s="307"/>
-      <c r="H56" s="281" t="s">
+      <c r="F56" s="242"/>
+      <c r="G56" s="308"/>
+      <c r="H56" s="274" t="s">
         <v>177</v>
       </c>
-      <c r="I56" s="282"/>
-      <c r="J56" s="283"/>
-      <c r="K56" s="308" t="s">
+      <c r="I56" s="272"/>
+      <c r="J56" s="273"/>
+      <c r="K56" s="309" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="247"/>
-      <c r="M56" s="247"/>
-      <c r="N56" s="247" t="s">
+      <c r="L56" s="242"/>
+      <c r="M56" s="242"/>
+      <c r="N56" s="242" t="s">
         <v>61</v>
       </c>
-      <c r="O56" s="247"/>
-      <c r="P56" s="247"/>
-      <c r="Q56" s="246" t="s">
+      <c r="O56" s="242"/>
+      <c r="P56" s="242"/>
+      <c r="Q56" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="R56" s="246"/>
-      <c r="S56" s="246"/>
-      <c r="T56" s="246" t="s">
+      <c r="R56" s="237"/>
+      <c r="S56" s="237"/>
+      <c r="T56" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="U56" s="246"/>
-      <c r="V56" s="246"/>
-      <c r="W56" s="246" t="s">
+      <c r="U56" s="237"/>
+      <c r="V56" s="237"/>
+      <c r="W56" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="X56" s="246"/>
-      <c r="Y56" s="253"/>
-      <c r="Z56" s="246" t="s">
+      <c r="X56" s="237"/>
+      <c r="Y56" s="238"/>
+      <c r="Z56" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="AA56" s="246"/>
-      <c r="AB56" s="246"/>
-      <c r="AC56" s="246" t="s">
+      <c r="AA56" s="237"/>
+      <c r="AB56" s="237"/>
+      <c r="AC56" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="AD56" s="246"/>
-      <c r="AE56" s="253"/>
-      <c r="AF56" s="246" t="s">
+      <c r="AD56" s="237"/>
+      <c r="AE56" s="238"/>
+      <c r="AF56" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="AG56" s="246"/>
-      <c r="AH56" s="246"/>
-      <c r="AI56" s="246" t="s">
+      <c r="AG56" s="237"/>
+      <c r="AH56" s="237"/>
+      <c r="AI56" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="AJ56" s="246"/>
-      <c r="AK56" s="290"/>
-      <c r="AL56" s="291" t="s">
+      <c r="AJ56" s="237"/>
+      <c r="AK56" s="267"/>
+      <c r="AL56" s="268" t="s">
         <v>81</v>
       </c>
-      <c r="AM56" s="246"/>
-      <c r="AN56" s="253"/>
-      <c r="AO56" s="289" t="s">
+      <c r="AM56" s="237"/>
+      <c r="AN56" s="238"/>
+      <c r="AO56" s="266" t="s">
         <v>153</v>
       </c>
-      <c r="AP56" s="246"/>
-      <c r="AQ56" s="246"/>
-      <c r="AR56" s="246" t="s">
+      <c r="AP56" s="237"/>
+      <c r="AQ56" s="237"/>
+      <c r="AR56" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="AS56" s="246"/>
-      <c r="AT56" s="246"/>
-      <c r="AU56" s="246" t="s">
+      <c r="AS56" s="237"/>
+      <c r="AT56" s="237"/>
+      <c r="AU56" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="AV56" s="246"/>
-      <c r="AW56" s="246"/>
-      <c r="AX56" s="281" t="s">
+      <c r="AV56" s="237"/>
+      <c r="AW56" s="237"/>
+      <c r="AX56" s="274" t="s">
         <v>162</v>
       </c>
-      <c r="AY56" s="282"/>
-      <c r="AZ56" s="283"/>
-      <c r="BA56" s="281" t="s">
+      <c r="AY56" s="272"/>
+      <c r="AZ56" s="273"/>
+      <c r="BA56" s="274" t="s">
         <v>164</v>
       </c>
-      <c r="BB56" s="282"/>
-      <c r="BC56" s="283"/>
-      <c r="BD56" s="246" t="s">
+      <c r="BB56" s="272"/>
+      <c r="BC56" s="273"/>
+      <c r="BD56" s="237" t="s">
         <v>125</v>
       </c>
-      <c r="BE56" s="246"/>
-      <c r="BF56" s="253"/>
-      <c r="BG56" s="246" t="s">
+      <c r="BE56" s="237"/>
+      <c r="BF56" s="238"/>
+      <c r="BG56" s="237" t="s">
         <v>166</v>
       </c>
-      <c r="BH56" s="246"/>
-      <c r="BI56" s="253"/>
-      <c r="BJ56" s="246" t="s">
+      <c r="BH56" s="237"/>
+      <c r="BI56" s="238"/>
+      <c r="BJ56" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="BK56" s="246"/>
-      <c r="BL56" s="253"/>
-      <c r="BM56" s="246" t="s">
+      <c r="BK56" s="237"/>
+      <c r="BL56" s="238"/>
+      <c r="BM56" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="BN56" s="246"/>
-      <c r="BO56" s="253"/>
-      <c r="BP56" s="246" t="s">
+      <c r="BN56" s="237"/>
+      <c r="BO56" s="238"/>
+      <c r="BP56" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="BQ56" s="246"/>
-      <c r="BR56" s="253"/>
-      <c r="BS56" s="246" t="s">
+      <c r="BQ56" s="237"/>
+      <c r="BR56" s="238"/>
+      <c r="BS56" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="BT56" s="246"/>
-      <c r="BU56" s="253"/>
-      <c r="BV56" s="246" t="s">
+      <c r="BT56" s="237"/>
+      <c r="BU56" s="238"/>
+      <c r="BV56" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="BW56" s="246"/>
-      <c r="BX56" s="253"/>
-      <c r="BY56" s="281" t="s">
+      <c r="BW56" s="237"/>
+      <c r="BX56" s="238"/>
+      <c r="BY56" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="BZ56" s="282"/>
-      <c r="CA56" s="283"/>
+      <c r="BZ56" s="272"/>
+      <c r="CA56" s="273"/>
     </row>
     <row r="57" spans="1:79">
       <c r="A57" s="23" t="s">
@@ -44026,11 +44026,11 @@
         <v>146</v>
       </c>
       <c r="G57" s="140"/>
-      <c r="H57" s="301" t="s">
+      <c r="H57" s="260" t="s">
         <v>230</v>
       </c>
-      <c r="I57" s="285"/>
-      <c r="J57" s="286"/>
+      <c r="I57" s="258"/>
+      <c r="J57" s="259"/>
       <c r="K57" s="142" t="s">
         <v>67</v>
       </c>
@@ -44045,111 +44045,111 @@
         <v>147</v>
       </c>
       <c r="P57" s="25"/>
-      <c r="Q57" s="249" t="s">
+      <c r="Q57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="R57" s="249"/>
-      <c r="S57" s="249"/>
-      <c r="T57" s="249" t="s">
+      <c r="R57" s="233"/>
+      <c r="S57" s="233"/>
+      <c r="T57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="U57" s="249"/>
-      <c r="V57" s="249"/>
-      <c r="W57" s="284" t="s">
+      <c r="U57" s="233"/>
+      <c r="V57" s="233"/>
+      <c r="W57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="X57" s="285"/>
-      <c r="Y57" s="286"/>
-      <c r="Z57" s="249" t="s">
+      <c r="X57" s="258"/>
+      <c r="Y57" s="259"/>
+      <c r="Z57" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="AA57" s="249"/>
-      <c r="AB57" s="249"/>
-      <c r="AC57" s="284" t="s">
+      <c r="AA57" s="233"/>
+      <c r="AB57" s="233"/>
+      <c r="AC57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="AD57" s="285"/>
-      <c r="AE57" s="286"/>
-      <c r="AF57" s="249" t="s">
+      <c r="AD57" s="258"/>
+      <c r="AE57" s="259"/>
+      <c r="AF57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AG57" s="249"/>
-      <c r="AH57" s="249"/>
-      <c r="AI57" s="249" t="s">
+      <c r="AG57" s="233"/>
+      <c r="AH57" s="233"/>
+      <c r="AI57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AJ57" s="249"/>
-      <c r="AK57" s="288"/>
-      <c r="AL57" s="276" t="s">
+      <c r="AJ57" s="233"/>
+      <c r="AK57" s="265"/>
+      <c r="AL57" s="279" t="s">
         <v>129</v>
       </c>
-      <c r="AM57" s="249"/>
-      <c r="AN57" s="252"/>
-      <c r="AO57" s="287" t="s">
+      <c r="AM57" s="233"/>
+      <c r="AN57" s="236"/>
+      <c r="AO57" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="AP57" s="249"/>
-      <c r="AQ57" s="249"/>
-      <c r="AR57" s="249" t="s">
+      <c r="AP57" s="233"/>
+      <c r="AQ57" s="233"/>
+      <c r="AR57" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="AS57" s="249"/>
-      <c r="AT57" s="249"/>
-      <c r="AU57" s="249" t="s">
+      <c r="AS57" s="233"/>
+      <c r="AT57" s="233"/>
+      <c r="AU57" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="AV57" s="249"/>
-      <c r="AW57" s="249"/>
-      <c r="AX57" s="284" t="s">
+      <c r="AV57" s="233"/>
+      <c r="AW57" s="233"/>
+      <c r="AX57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="AY57" s="285"/>
-      <c r="AZ57" s="286"/>
-      <c r="BA57" s="284" t="s">
+      <c r="AY57" s="258"/>
+      <c r="AZ57" s="259"/>
+      <c r="BA57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BB57" s="285"/>
-      <c r="BC57" s="286"/>
-      <c r="BD57" s="284" t="s">
+      <c r="BB57" s="258"/>
+      <c r="BC57" s="259"/>
+      <c r="BD57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BE57" s="285"/>
-      <c r="BF57" s="286"/>
-      <c r="BG57" s="284" t="s">
+      <c r="BE57" s="258"/>
+      <c r="BF57" s="259"/>
+      <c r="BG57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BH57" s="285"/>
-      <c r="BI57" s="286"/>
-      <c r="BJ57" s="284" t="s">
+      <c r="BH57" s="258"/>
+      <c r="BI57" s="259"/>
+      <c r="BJ57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BK57" s="285"/>
-      <c r="BL57" s="286"/>
-      <c r="BM57" s="284" t="s">
+      <c r="BK57" s="258"/>
+      <c r="BL57" s="259"/>
+      <c r="BM57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BN57" s="285"/>
-      <c r="BO57" s="286"/>
-      <c r="BP57" s="284" t="s">
+      <c r="BN57" s="258"/>
+      <c r="BO57" s="259"/>
+      <c r="BP57" s="257" t="s">
         <v>70</v>
       </c>
-      <c r="BQ57" s="285"/>
-      <c r="BR57" s="286"/>
-      <c r="BS57" s="284" t="s">
+      <c r="BQ57" s="258"/>
+      <c r="BR57" s="259"/>
+      <c r="BS57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BT57" s="285"/>
-      <c r="BU57" s="286"/>
-      <c r="BV57" s="284" t="s">
+      <c r="BT57" s="258"/>
+      <c r="BU57" s="259"/>
+      <c r="BV57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BW57" s="285"/>
-      <c r="BX57" s="286"/>
-      <c r="BY57" s="284" t="s">
+      <c r="BW57" s="258"/>
+      <c r="BX57" s="259"/>
+      <c r="BY57" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="BZ57" s="285"/>
-      <c r="CA57" s="286"/>
+      <c r="BZ57" s="258"/>
+      <c r="CA57" s="259"/>
     </row>
     <row r="58" spans="1:79">
       <c r="A58" s="1" t="s">
@@ -48582,111 +48582,111 @@
     </row>
     <row r="74" spans="1:79">
       <c r="A74" s="22"/>
-      <c r="B74" s="235" t="s">
+      <c r="B74" s="241" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="245"/>
-      <c r="D74" s="245"/>
-      <c r="E74" s="231" t="s">
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="235" t="s">
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="245"/>
-      <c r="J74" s="254"/>
-      <c r="K74" s="231" t="s">
+      <c r="I74" s="231"/>
+      <c r="J74" s="232"/>
+      <c r="K74" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="L74" s="245"/>
-      <c r="M74" s="245"/>
-      <c r="N74" s="231" t="s">
+      <c r="L74" s="231"/>
+      <c r="M74" s="231"/>
+      <c r="N74" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="O74" s="245"/>
-      <c r="P74" s="245"/>
-      <c r="Q74" s="231" t="s">
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="R74" s="245"/>
-      <c r="S74" s="245"/>
-      <c r="T74" s="242" t="s">
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="243"/>
-      <c r="V74" s="244"/>
-      <c r="W74" s="231" t="s">
+      <c r="U74" s="252"/>
+      <c r="V74" s="253"/>
+      <c r="W74" s="230" t="s">
         <v>190</v>
       </c>
-      <c r="X74" s="245"/>
-      <c r="Y74" s="245"/>
-      <c r="Z74" s="231" t="s">
+      <c r="X74" s="231"/>
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="AA74" s="245"/>
-      <c r="AB74" s="245"/>
-      <c r="AC74" s="231" t="s">
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231"/>
+      <c r="AC74" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="AD74" s="245"/>
-      <c r="AE74" s="254"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="232"/>
     </row>
     <row r="75" spans="1:79">
       <c r="A75" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="234">
+      <c r="B75" s="240">
         <v>10</v>
       </c>
-      <c r="C75" s="250"/>
-      <c r="D75" s="250"/>
-      <c r="E75" s="230">
+      <c r="C75" s="235"/>
+      <c r="D75" s="235"/>
+      <c r="E75" s="234">
         <v>11</v>
       </c>
-      <c r="F75" s="250"/>
-      <c r="G75" s="250"/>
-      <c r="H75" s="234">
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="240">
         <v>10</v>
       </c>
-      <c r="I75" s="250"/>
-      <c r="J75" s="251"/>
-      <c r="K75" s="230">
+      <c r="I75" s="235"/>
+      <c r="J75" s="239"/>
+      <c r="K75" s="234">
         <v>9</v>
       </c>
-      <c r="L75" s="250"/>
-      <c r="M75" s="250"/>
-      <c r="N75" s="230">
+      <c r="L75" s="235"/>
+      <c r="M75" s="235"/>
+      <c r="N75" s="234">
         <v>10</v>
       </c>
-      <c r="O75" s="250"/>
-      <c r="P75" s="250"/>
-      <c r="Q75" s="230">
+      <c r="O75" s="235"/>
+      <c r="P75" s="235"/>
+      <c r="Q75" s="234">
         <v>11</v>
       </c>
-      <c r="R75" s="250"/>
-      <c r="S75" s="250"/>
-      <c r="T75" s="238">
+      <c r="R75" s="235"/>
+      <c r="S75" s="235"/>
+      <c r="T75" s="244">
         <v>11</v>
       </c>
-      <c r="U75" s="239"/>
-      <c r="V75" s="240"/>
-      <c r="W75" s="230">
+      <c r="U75" s="245"/>
+      <c r="V75" s="246"/>
+      <c r="W75" s="234">
         <v>11</v>
       </c>
-      <c r="X75" s="250"/>
-      <c r="Y75" s="250"/>
-      <c r="Z75" s="230">
+      <c r="X75" s="235"/>
+      <c r="Y75" s="235"/>
+      <c r="Z75" s="234">
         <v>10</v>
       </c>
-      <c r="AA75" s="250"/>
-      <c r="AB75" s="250"/>
-      <c r="AC75" s="230">
+      <c r="AA75" s="235"/>
+      <c r="AB75" s="235"/>
+      <c r="AC75" s="234">
         <v>11</v>
       </c>
-      <c r="AD75" s="250"/>
-      <c r="AE75" s="251"/>
+      <c r="AD75" s="235"/>
+      <c r="AE75" s="239"/>
     </row>
     <row r="76" spans="1:79">
       <c r="A76" s="1" t="s">
@@ -50427,40 +50427,65 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="BJ56:BL56"/>
+    <mergeCell ref="BJ57:BL57"/>
+    <mergeCell ref="AL56:AN56"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AL57:AN57"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="BY56:CA56"/>
+    <mergeCell ref="BY57:CA57"/>
+    <mergeCell ref="AX56:AZ56"/>
+    <mergeCell ref="AX57:AZ57"/>
+    <mergeCell ref="BA56:BC56"/>
+    <mergeCell ref="BA57:BC57"/>
+    <mergeCell ref="BD56:BF56"/>
+    <mergeCell ref="BD57:BF57"/>
+    <mergeCell ref="AO56:AQ56"/>
+    <mergeCell ref="AR56:AT56"/>
+    <mergeCell ref="AO57:AQ57"/>
+    <mergeCell ref="AR57:AT57"/>
+    <mergeCell ref="AU56:AW56"/>
+    <mergeCell ref="AU57:AW57"/>
+    <mergeCell ref="BS56:BU56"/>
+    <mergeCell ref="BS57:BU57"/>
+    <mergeCell ref="BV56:BX56"/>
+    <mergeCell ref="BV57:BX57"/>
+    <mergeCell ref="BM56:BO56"/>
+    <mergeCell ref="BM57:BO57"/>
+    <mergeCell ref="BP56:BR56"/>
+    <mergeCell ref="BP57:BR57"/>
+    <mergeCell ref="BG56:BI56"/>
+    <mergeCell ref="BG57:BI57"/>
     <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="AC56:AE56"/>
     <mergeCell ref="N56:P56"/>
@@ -50485,66 +50510,41 @@
     <mergeCell ref="Z74:AB74"/>
     <mergeCell ref="AC74:AE74"/>
     <mergeCell ref="N75:P75"/>
-    <mergeCell ref="BY56:CA56"/>
-    <mergeCell ref="BY57:CA57"/>
-    <mergeCell ref="AX56:AZ56"/>
-    <mergeCell ref="AX57:AZ57"/>
-    <mergeCell ref="BA56:BC56"/>
-    <mergeCell ref="BA57:BC57"/>
-    <mergeCell ref="BD56:BF56"/>
-    <mergeCell ref="BD57:BF57"/>
-    <mergeCell ref="AO56:AQ56"/>
-    <mergeCell ref="AR56:AT56"/>
-    <mergeCell ref="AO57:AQ57"/>
-    <mergeCell ref="AR57:AT57"/>
-    <mergeCell ref="AU56:AW56"/>
-    <mergeCell ref="AU57:AW57"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
     <mergeCell ref="H57:J57"/>
-    <mergeCell ref="BS56:BU56"/>
-    <mergeCell ref="BS57:BU57"/>
-    <mergeCell ref="BV56:BX56"/>
-    <mergeCell ref="BV57:BX57"/>
-    <mergeCell ref="BM56:BO56"/>
-    <mergeCell ref="BM57:BO57"/>
-    <mergeCell ref="BP56:BR56"/>
-    <mergeCell ref="BP57:BR57"/>
-    <mergeCell ref="BG56:BI56"/>
-    <mergeCell ref="BG57:BI57"/>
-    <mergeCell ref="BJ56:BL56"/>
-    <mergeCell ref="BJ57:BL57"/>
-    <mergeCell ref="AL56:AN56"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="AI57:AK57"/>
-    <mergeCell ref="AL57:AN57"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="AI56:AK56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Z20:AB20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51151,7 +51151,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -51180,11 +51180,11 @@
       <c r="E1" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="L1" s="330" t="s">
+      <c r="L1" s="323" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="201">
@@ -51260,12 +51260,12 @@
       <c r="G5" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="L5" s="331" t="s">
+      <c r="L5" s="324" t="s">
         <v>372</v>
       </c>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="324"/>
+      <c r="O5" s="324"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="201">
@@ -51284,12 +51284,12 @@
       <c r="I6" s="203" t="s">
         <v>341</v>
       </c>
-      <c r="L6" s="323" t="s">
+      <c r="L6" s="325" t="s">
         <v>371</v>
       </c>
-      <c r="M6" s="323"/>
-      <c r="N6" s="323"/>
-      <c r="O6" s="323"/>
+      <c r="M6" s="325"/>
+      <c r="N6" s="325"/>
+      <c r="O6" s="325"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="201">
@@ -51307,12 +51307,12 @@
       <c r="I7" s="202" t="s">
         <v>309</v>
       </c>
-      <c r="L7" s="323" t="s">
+      <c r="L7" s="325" t="s">
         <v>617</v>
       </c>
-      <c r="M7" s="323"/>
-      <c r="N7" s="323"/>
-      <c r="O7" s="323"/>
+      <c r="M7" s="325"/>
+      <c r="N7" s="325"/>
+      <c r="O7" s="325"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="201">
@@ -51330,15 +51330,15 @@
       <c r="I8" s="203" t="s">
         <v>342</v>
       </c>
-      <c r="L8" s="327" t="s">
+      <c r="L8" s="329" t="s">
         <v>618</v>
       </c>
-      <c r="M8" s="327"/>
-      <c r="N8" s="327"/>
-      <c r="O8" s="327"/>
-      <c r="P8" s="327"/>
-      <c r="Q8" s="327"/>
-      <c r="R8" s="327"/>
+      <c r="M8" s="329"/>
+      <c r="N8" s="329"/>
+      <c r="O8" s="329"/>
+      <c r="P8" s="329"/>
+      <c r="Q8" s="329"/>
+      <c r="R8" s="329"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="201">
@@ -51370,15 +51370,15 @@
       <c r="G10" s="203" t="s">
         <v>343</v>
       </c>
-      <c r="L10" s="323" t="s">
+      <c r="L10" s="325" t="s">
         <v>376</v>
       </c>
-      <c r="M10" s="323"/>
-      <c r="N10" s="323"/>
-      <c r="O10" s="323"/>
-      <c r="P10" s="323"/>
-      <c r="Q10" s="323"/>
-      <c r="R10" s="323"/>
+      <c r="M10" s="325"/>
+      <c r="N10" s="325"/>
+      <c r="O10" s="325"/>
+      <c r="P10" s="325"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="325"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="201">
@@ -51393,11 +51393,11 @@
       <c r="D11" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="L11" s="323" t="s">
+      <c r="L11" s="325" t="s">
         <v>373</v>
       </c>
-      <c r="M11" s="328"/>
-      <c r="N11" s="328"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="201">
@@ -51412,11 +51412,11 @@
       <c r="D12" s="165" t="s">
         <v>293</v>
       </c>
-      <c r="L12" s="329" t="s">
+      <c r="L12" s="331" t="s">
         <v>374</v>
       </c>
-      <c r="M12" s="329"/>
-      <c r="N12" s="329"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="201">
@@ -51434,10 +51434,10 @@
       <c r="G13" s="203" t="s">
         <v>413</v>
       </c>
-      <c r="L13" s="323" t="s">
+      <c r="L13" s="325" t="s">
         <v>375</v>
       </c>
-      <c r="M13" s="323"/>
+      <c r="M13" s="325"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="201">
@@ -51452,10 +51452,10 @@
       <c r="D14" s="210" t="s">
         <v>434</v>
       </c>
-      <c r="L14" s="323" t="s">
+      <c r="L14" s="325" t="s">
         <v>377</v>
       </c>
-      <c r="M14" s="323"/>
+      <c r="M14" s="325"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="201">
@@ -51470,10 +51470,10 @@
       <c r="D15" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="L15" s="323" t="s">
+      <c r="L15" s="325" t="s">
         <v>380</v>
       </c>
-      <c r="M15" s="323"/>
+      <c r="M15" s="325"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="201">
@@ -51488,10 +51488,10 @@
       <c r="D16" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="L16" s="323" t="s">
+      <c r="L16" s="325" t="s">
         <v>384</v>
       </c>
-      <c r="M16" s="323"/>
+      <c r="M16" s="325"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="201">
@@ -51506,10 +51506,10 @@
       <c r="D17" s="217" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="323" t="s">
+      <c r="L17" s="325" t="s">
         <v>385</v>
       </c>
-      <c r="M17" s="323"/>
+      <c r="M17" s="325"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="201">
@@ -51524,10 +51524,10 @@
       <c r="D18" s="216" t="s">
         <v>305</v>
       </c>
-      <c r="L18" s="323" t="s">
+      <c r="L18" s="325" t="s">
         <v>390</v>
       </c>
-      <c r="M18" s="323"/>
+      <c r="M18" s="325"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="201">
@@ -51542,10 +51542,10 @@
       <c r="D19" s="217" t="s">
         <v>308</v>
       </c>
-      <c r="L19" s="323" t="s">
+      <c r="L19" s="325" t="s">
         <v>391</v>
       </c>
-      <c r="M19" s="323"/>
+      <c r="M19" s="325"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="201">
@@ -51560,10 +51560,10 @@
       <c r="D20" s="165" t="s">
         <v>327</v>
       </c>
-      <c r="L20" s="323" t="s">
+      <c r="L20" s="325" t="s">
         <v>395</v>
       </c>
-      <c r="M20" s="323"/>
+      <c r="M20" s="325"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="201">
@@ -51578,10 +51578,10 @@
       <c r="D21" s="165" t="s">
         <v>326</v>
       </c>
-      <c r="L21" s="323" t="s">
+      <c r="L21" s="325" t="s">
         <v>416</v>
       </c>
-      <c r="M21" s="323"/>
+      <c r="M21" s="325"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="201">
@@ -53328,13 +53328,13 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="324" t="s">
+      <c r="A157" s="326" t="s">
         <v>503</v>
       </c>
-      <c r="B157" s="325"/>
-      <c r="C157" s="325"/>
-      <c r="D157" s="325"/>
-      <c r="E157" s="326"/>
+      <c r="B157" s="327"/>
+      <c r="C157" s="327"/>
+      <c r="D157" s="327"/>
+      <c r="E157" s="328"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="201">
@@ -53874,11 +53874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L21:M21"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="L8:R8"/>
     <mergeCell ref="L16:M16"/>
@@ -53892,6 +53887,11 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="A80:A84 B80:C81 B83:B84 C84 A92:E97 D80:E84 D158:D169 B103:E156 E158:E199 B158:C199 D171:D199 A103:A199 A200:E200 A202:A1048576 B202:B203 B205:B1048576 C202:C210 C212:C1048576 B1:B29 D1:D29 A47:E47 A50:E50 A53:E53 A67:E67 A71:E71 A73:E73 A74:D79 A1:A74 D31:D74 C1:C74 B31:B74 E1:E79 D202:E1048576">
@@ -53922,8 +53922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -54975,12 +54975,12 @@
         <v>204</v>
       </c>
       <c r="F1" s="317"/>
-      <c r="H1" s="333" t="s">
+      <c r="H1" s="332" t="s">
         <v>621</v>
       </c>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="314"/>
@@ -55346,26 +55346,26 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="22"/>
-      <c r="B24" s="277" t="s">
+      <c r="B24" s="280" t="s">
         <v>596</v>
       </c>
-      <c r="C24" s="271"/>
-      <c r="D24" s="280"/>
-      <c r="E24" s="277" t="s">
+      <c r="C24" s="281"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="280" t="s">
         <v>595</v>
       </c>
-      <c r="F24" s="271"/>
-      <c r="G24" s="280"/>
-      <c r="I24" s="277" t="s">
+      <c r="F24" s="281"/>
+      <c r="G24" s="284"/>
+      <c r="I24" s="280" t="s">
         <v>608</v>
       </c>
-      <c r="J24" s="271"/>
-      <c r="K24" s="280"/>
-      <c r="M24" s="277" t="s">
+      <c r="J24" s="281"/>
+      <c r="K24" s="284"/>
+      <c r="M24" s="280" t="s">
         <v>610</v>
       </c>
-      <c r="N24" s="271"/>
-      <c r="O24" s="280"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="284"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="23" t="s">
@@ -56146,41 +56146,41 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="6"/>
-      <c r="B42" s="231" t="s">
+      <c r="B42" s="230" t="s">
         <v>599</v>
       </c>
-      <c r="C42" s="231"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="231" t="s">
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="230" t="s">
         <v>600</v>
       </c>
-      <c r="F42" s="231"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="231" t="s">
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230" t="s">
         <v>601</v>
       </c>
-      <c r="I42" s="231"/>
-      <c r="J42" s="231"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="230" t="s">
+      <c r="B43" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="230"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230" t="s">
+      <c r="C43" s="234"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="230" t="s">
+      <c r="F43" s="234"/>
+      <c r="G43" s="234"/>
+      <c r="H43" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="230"/>
-      <c r="J43" s="230"/>
+      <c r="I43" s="234"/>
+      <c r="J43" s="234"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
@@ -56750,36 +56750,36 @@
     <row r="59" spans="1:19" ht="15" thickBot="1"/>
     <row r="60" spans="1:19">
       <c r="A60" s="22"/>
-      <c r="B60" s="277" t="s">
+      <c r="B60" s="280" t="s">
         <v>603</v>
       </c>
-      <c r="C60" s="271"/>
-      <c r="D60" s="280"/>
-      <c r="E60" s="332" t="s">
+      <c r="C60" s="281"/>
+      <c r="D60" s="284"/>
+      <c r="E60" s="333" t="s">
         <v>604</v>
       </c>
-      <c r="F60" s="271"/>
-      <c r="G60" s="280"/>
-      <c r="H60" s="277" t="s">
+      <c r="F60" s="281"/>
+      <c r="G60" s="284"/>
+      <c r="H60" s="280" t="s">
         <v>605</v>
       </c>
-      <c r="I60" s="271"/>
-      <c r="J60" s="280"/>
-      <c r="K60" s="277" t="s">
+      <c r="I60" s="281"/>
+      <c r="J60" s="284"/>
+      <c r="K60" s="280" t="s">
         <v>593</v>
       </c>
-      <c r="L60" s="271"/>
-      <c r="M60" s="280"/>
-      <c r="N60" s="332" t="s">
+      <c r="L60" s="281"/>
+      <c r="M60" s="284"/>
+      <c r="N60" s="333" t="s">
         <v>606</v>
       </c>
-      <c r="O60" s="271"/>
-      <c r="P60" s="278"/>
-      <c r="Q60" s="277" t="s">
+      <c r="O60" s="281"/>
+      <c r="P60" s="282"/>
+      <c r="Q60" s="280" t="s">
         <v>611</v>
       </c>
-      <c r="R60" s="271"/>
-      <c r="S60" s="280"/>
+      <c r="R60" s="281"/>
+      <c r="S60" s="284"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="23" t="s">
@@ -57891,26 +57891,26 @@
     <row r="76" spans="1:19" ht="15" thickBot="1"/>
     <row r="77" spans="1:19">
       <c r="A77" s="22"/>
-      <c r="B77" s="277" t="s">
+      <c r="B77" s="280" t="s">
         <v>612</v>
       </c>
-      <c r="C77" s="271"/>
-      <c r="D77" s="280"/>
-      <c r="E77" s="332" t="s">
+      <c r="C77" s="281"/>
+      <c r="D77" s="284"/>
+      <c r="E77" s="333" t="s">
         <v>613</v>
       </c>
-      <c r="F77" s="271"/>
-      <c r="G77" s="280"/>
-      <c r="H77" s="277" t="s">
+      <c r="F77" s="281"/>
+      <c r="G77" s="284"/>
+      <c r="H77" s="280" t="s">
         <v>614</v>
       </c>
-      <c r="I77" s="271"/>
-      <c r="J77" s="280"/>
-      <c r="K77" s="277" t="s">
+      <c r="I77" s="281"/>
+      <c r="J77" s="284"/>
+      <c r="K77" s="280" t="s">
         <v>620</v>
       </c>
-      <c r="L77" s="271"/>
-      <c r="M77" s="280"/>
+      <c r="L77" s="281"/>
+      <c r="M77" s="284"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="23" t="s">
@@ -58679,14 +58679,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="N60:P60"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="M24:O24"/>
@@ -58703,6 +58695,14 @@
     <mergeCell ref="H60:J60"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E42:G42"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
